--- a/examples/campaigns/coral-reef-light-test-full/coral-reef-light-test-full.xlsx
+++ b/examples/campaigns/coral-reef-light-test-full/coral-reef-light-test-full.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Help" sheetId="1" state="visible" r:id="rId2"/>
@@ -272,19 +272,6 @@
           </rPr>
           <t xml:space="preserve">The file path, relative to your `audio_folder`.
 Should start with `/`.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">The site name. Useful to gather multiple recordings together.</t>
         </r>
       </text>
     </comment>
@@ -615,7 +602,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="196">
   <si>
     <t xml:space="preserve">SoundScapeExplorer
 Version 13</t>
@@ -1063,6 +1050,9 @@
     <t xml:space="preserve">poissons</t>
   </si>
   <si>
+    <t xml:space="preserve">human</t>
+  </si>
+  <si>
     <t xml:space="preserve">integration</t>
   </si>
   <si>
@@ -1070,6 +1060,9 @@
   </si>
   <si>
     <t xml:space="preserve">u_15sec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u_5sec</t>
   </si>
   <si>
     <t xml:space="preserve">range</t>
@@ -1490,7 +1483,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="48">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1587,16 +1580,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -1608,10 +1597,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1887,63 +1872,63 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="36" width="13.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="37" width="14.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="37" width="17.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="37" width="15.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="37" width="25.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="34" width="13.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="35" width="14.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="35" width="17.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="35" width="15.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="35" width="25.98"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1014" min="6" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="40" t="s">
-        <v>159</v>
-      </c>
-      <c r="B1" s="40" t="s">
-        <v>160</v>
-      </c>
-      <c r="C1" s="42" t="s">
+      <c r="A1" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="B1" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="C1" s="40" t="s">
         <v>163</v>
       </c>
+      <c r="D1" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="36" t="s">
-        <v>164</v>
-      </c>
-      <c r="B2" s="38" t="n">
+      <c r="A2" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="36" t="n">
         <v>2</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="36" t="s">
-        <v>164</v>
-      </c>
-      <c r="B3" s="37" t="n">
+      <c r="A3" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="35" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="36" t="s">
-        <v>165</v>
-      </c>
-      <c r="B4" s="37" t="n">
+      <c r="A4" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" s="35" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="36" t="s">
-        <v>165</v>
-      </c>
-      <c r="B5" s="37" t="n">
+      <c r="A5" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" s="35" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1985,62 +1970,62 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="36" width="16.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="37" width="16.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="38" width="17.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="38" width="15.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="38" width="25.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="34" width="16.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="35" width="16.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="36" width="17.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="36" width="15.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="36" width="25.98"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1014" min="6" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="40" t="s">
-        <v>166</v>
-      </c>
-      <c r="B1" s="40" t="s">
-        <v>167</v>
-      </c>
-      <c r="C1" s="40" t="s">
+      <c r="A1" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="B1" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="C1" s="38" t="s">
         <v>170</v>
       </c>
+      <c r="D1" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="36" t="s">
-        <v>171</v>
-      </c>
-      <c r="B2" s="38" t="n">
+      <c r="A2" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="36" t="n">
         <v>15</v>
       </c>
-      <c r="C2" s="38" t="n">
+      <c r="C2" s="36" t="n">
         <v>15</v>
       </c>
-      <c r="D2" s="38" t="n">
+      <c r="D2" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="38" t="n">
+      <c r="E2" s="36" t="n">
         <v>0.1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="B3" s="37" t="n">
+      <c r="A3" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3" s="35" t="n">
         <v>15</v>
       </c>
-      <c r="C3" s="38" t="n">
+      <c r="C3" s="36" t="n">
         <v>15</v>
       </c>
-      <c r="D3" s="38" t="n">
+      <c r="D3" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="E3" s="38" t="n">
+      <c r="E3" s="36" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -2088,89 +2073,89 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="44" width="16.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="45" width="42.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="42" width="16.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="43" width="42.79"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1015" min="3" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="46" t="s">
-        <v>173</v>
-      </c>
-      <c r="B1" s="47" t="s">
-        <v>174</v>
+      <c r="A1" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>175</v>
+      <c r="A2" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="44" t="s">
-        <v>142</v>
-      </c>
-      <c r="B3" s="48" t="s">
-        <v>176</v>
+      <c r="A3" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="44" t="s">
-        <v>143</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>177</v>
+      <c r="A4" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="B5" s="48" t="s">
-        <v>178</v>
+      <c r="A5" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="44" t="s">
-        <v>145</v>
-      </c>
-      <c r="B6" s="48" t="s">
-        <v>179</v>
+      <c r="A6" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="44" t="s">
-        <v>146</v>
-      </c>
-      <c r="B7" s="49" t="s">
-        <v>180</v>
+      <c r="A7" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="44" t="s">
-        <v>147</v>
-      </c>
-      <c r="B8" s="49" t="s">
-        <v>181</v>
+      <c r="A8" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="44" t="s">
-        <v>148</v>
-      </c>
-      <c r="B9" s="49" t="s">
-        <v>182</v>
+      <c r="A9" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="44" t="s">
-        <v>149</v>
-      </c>
-      <c r="B10" s="49" t="s">
-        <v>183</v>
+      <c r="A10" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -2202,85 +2187,85 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="44" width="16.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="45" width="42.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="42" width="16.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="43" width="42.79"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1015" min="3" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="46" t="s">
-        <v>184</v>
-      </c>
-      <c r="B1" s="47" t="s">
-        <v>174</v>
+      <c r="A1" s="44" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="48" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="44" t="s">
+      <c r="B8" s="46" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="B3" s="48" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="44" t="s">
-        <v>155</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="44" t="s">
-        <v>156</v>
-      </c>
-      <c r="B5" s="48" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="B6" s="48" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="B7" s="48" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="B8" s="48" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="44" t="s">
-        <v>152</v>
-      </c>
-      <c r="B9" s="48" t="s">
-        <v>192</v>
+      <c r="B9" s="46" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="49"/>
+      <c r="B10" s="47"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2311,23 +2296,23 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="44" width="16.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="42" width="16.24"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1015" min="2" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="46" t="s">
-        <v>159</v>
+      <c r="A1" s="44" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="44" t="s">
-        <v>164</v>
+      <c r="A2" s="42" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="44" t="s">
-        <v>165</v>
+      <c r="A3" s="42" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -2359,23 +2344,23 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="44" width="16.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="42" width="16.24"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1015" min="2" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="46" t="s">
-        <v>166</v>
+      <c r="A1" s="44" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="44" t="s">
-        <v>171</v>
+      <c r="A2" s="42" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="44" t="s">
-        <v>172</v>
+      <c r="A3" s="42" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2403,28 +2388,28 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="44" width="16.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="42" width="16.79"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1014" min="2" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="46" t="s">
-        <v>132</v>
+      <c r="A1" s="44" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="44" t="s">
-        <v>135</v>
+      <c r="A2" s="42" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="42" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="44" t="s">
-        <v>193</v>
+      <c r="A4" s="42" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2446,10 +2431,10 @@
   </sheetPr>
   <dimension ref="A1:AMJ10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3617,380 +3602,380 @@
   </sheetPr>
   <dimension ref="A1:S55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="23" width="56.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="24" width="42.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="24" width="20.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="25" width="22.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="26" width="20.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="5" style="27" width="18.21"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="28" min="20" style="27" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="24" width="20.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="5" style="26" width="18.21"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="28" min="20" style="26" width="11.52"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1003" min="29" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="L1" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="M1" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="N1" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="O1" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="28" t="s">
+      <c r="P1" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="Q1" s="28" t="s">
+      <c r="Q1" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="R1" s="28" t="s">
+      <c r="R1" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="S1" s="28" t="s">
+      <c r="S1" s="27" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="31" t="n">
+      <c r="B2" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="29" t="n">
         <v>44881.5034722222</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="26" t="n">
+      <c r="E2" s="24" t="n">
         <v>2022</v>
       </c>
-      <c r="F2" s="26" t="n">
+      <c r="F2" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="26" t="n">
+      <c r="G2" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="H2" s="26" t="n">
+      <c r="H2" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="L2" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="M2" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="N2" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="O2" s="27" t="n">
+      <c r="L2" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" s="26" t="n">
         <v>465</v>
       </c>
-      <c r="P2" s="27" t="n">
+      <c r="P2" s="26" t="n">
         <v>62</v>
       </c>
-      <c r="Q2" s="27" t="n">
+      <c r="Q2" s="26" t="n">
         <v>461</v>
       </c>
-      <c r="R2" s="27" t="n">
+      <c r="R2" s="26" t="n">
         <v>58</v>
       </c>
-      <c r="S2" s="27" t="str">
+      <c r="S2" s="26" t="str">
         <f aca="false">_xlfn.CONCAT(D2,"/",E2,"/",F2)</f>
         <v>boat/2022/1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="31" t="n">
+      <c r="B3" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="29" t="n">
         <v>44881.5104166667</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="26" t="n">
+      <c r="E3" s="24" t="n">
         <v>2022</v>
       </c>
-      <c r="F3" s="26" t="n">
+      <c r="F3" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="26" t="n">
+      <c r="G3" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="26" t="n">
+      <c r="H3" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="I3" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="K3" s="27" t="s">
+      <c r="K3" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="L3" s="27" t="s">
+      <c r="L3" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="M3" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="N3" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="O3" s="27" t="n">
+      <c r="M3" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="N3" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" s="26" t="n">
         <v>465</v>
       </c>
-      <c r="P3" s="27" t="n">
+      <c r="P3" s="26" t="n">
         <v>62</v>
       </c>
-      <c r="Q3" s="27" t="n">
+      <c r="Q3" s="26" t="n">
         <v>461</v>
       </c>
-      <c r="R3" s="27" t="n">
+      <c r="R3" s="26" t="n">
         <v>58</v>
       </c>
-      <c r="S3" s="27" t="str">
+      <c r="S3" s="26" t="str">
         <f aca="false">_xlfn.CONCAT(D3,"/",E3,"/",F3)</f>
         <v>boat/2022/1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="31" t="n">
+      <c r="B4" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="29" t="n">
         <v>44881.5173611111</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="26" t="n">
+      <c r="E4" s="24" t="n">
         <v>2022</v>
       </c>
-      <c r="F4" s="26" t="n">
+      <c r="F4" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G4" s="26" t="n">
+      <c r="G4" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="H4" s="26" t="n">
+      <c r="H4" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="K4" s="27" t="s">
+      <c r="K4" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="27" t="s">
+      <c r="L4" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="M4" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="N4" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="O4" s="27" t="n">
+      <c r="M4" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="N4" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="O4" s="26" t="n">
         <v>465</v>
       </c>
-      <c r="P4" s="27" t="n">
+      <c r="P4" s="26" t="n">
         <v>62</v>
       </c>
-      <c r="Q4" s="27" t="n">
+      <c r="Q4" s="26" t="n">
         <v>461</v>
       </c>
-      <c r="R4" s="27" t="n">
+      <c r="R4" s="26" t="n">
         <v>58</v>
       </c>
-      <c r="S4" s="27" t="str">
+      <c r="S4" s="26" t="str">
         <f aca="false">_xlfn.CONCAT(D4,"/",E4,"/",F4)</f>
         <v>boat/2022/1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="32" t="n">
+      <c r="B5" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="30" t="n">
         <v>44887.5</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="26" t="n">
+      <c r="E5" s="24" t="n">
         <v>2022</v>
       </c>
-      <c r="F5" s="26" t="n">
+      <c r="F5" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="G5" s="26" t="n">
+      <c r="G5" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="H5" s="26" t="n">
+      <c r="H5" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="26" t="s">
+      <c r="J5" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="K5" s="27" t="s">
+      <c r="K5" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="L5" s="27" t="s">
+      <c r="L5" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="M5" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="N5" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="O5" s="27" t="n">
+      <c r="M5" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="N5" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="O5" s="26" t="n">
         <v>465</v>
       </c>
-      <c r="P5" s="27" t="n">
+      <c r="P5" s="26" t="n">
         <v>62</v>
       </c>
-      <c r="Q5" s="27" t="n">
+      <c r="Q5" s="26" t="n">
         <v>461</v>
       </c>
-      <c r="R5" s="27" t="n">
+      <c r="R5" s="26" t="n">
         <v>58</v>
       </c>
-      <c r="S5" s="27" t="str">
+      <c r="S5" s="26" t="str">
         <f aca="false">_xlfn.CONCAT(D5,"/",E5,"/",F5)</f>
         <v>boat/2022/2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="32" t="n">
+      <c r="B6" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="30" t="n">
         <v>44887.5069444444</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="26" t="n">
+      <c r="E6" s="24" t="n">
         <v>2022</v>
       </c>
-      <c r="F6" s="26" t="n">
+      <c r="F6" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="G6" s="26" t="n">
+      <c r="G6" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="H6" s="26" t="n">
+      <c r="H6" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="J6" s="26" t="s">
+      <c r="J6" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="K6" s="27" t="s">
+      <c r="K6" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="L6" s="27" t="s">
+      <c r="L6" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="M6" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="N6" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="O6" s="27" t="n">
+      <c r="M6" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="N6" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="O6" s="26" t="n">
         <v>465</v>
       </c>
-      <c r="P6" s="27" t="n">
+      <c r="P6" s="26" t="n">
         <v>62</v>
       </c>
-      <c r="Q6" s="27" t="n">
+      <c r="Q6" s="26" t="n">
         <v>461</v>
       </c>
-      <c r="R6" s="27" t="n">
+      <c r="R6" s="26" t="n">
         <v>58</v>
       </c>
-      <c r="S6" s="27" t="str">
+      <c r="S6" s="26" t="str">
         <f aca="false">_xlfn.CONCAT(D6,"/",E6,"/",F6)</f>
         <v>boat/2022/2</v>
       </c>
@@ -4000,57 +3985,57 @@
         <v>62</v>
       </c>
       <c r="B7" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="30" t="n">
+        <v>44887.5138888889</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="24" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F7" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" s="24" t="n">
+        <v>5</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="M7" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="N7" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="O7" s="26" t="n">
+        <v>465</v>
+      </c>
+      <c r="P7" s="26" t="n">
         <v>62</v>
       </c>
-      <c r="C7" s="32" t="n">
-        <v>44887.5138888889</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="26" t="n">
-        <v>2022</v>
-      </c>
-      <c r="F7" s="26" t="n">
-        <v>2</v>
-      </c>
-      <c r="G7" s="26" t="n">
-        <v>2</v>
-      </c>
-      <c r="H7" s="26" t="n">
-        <v>5</v>
-      </c>
-      <c r="I7" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="K7" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="L7" s="27" t="s">
+      <c r="Q7" s="26" t="n">
+        <v>461</v>
+      </c>
+      <c r="R7" s="26" t="n">
         <v>58</v>
       </c>
-      <c r="M7" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="N7" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="O7" s="27" t="n">
-        <v>465</v>
-      </c>
-      <c r="P7" s="27" t="n">
-        <v>62</v>
-      </c>
-      <c r="Q7" s="27" t="n">
-        <v>461</v>
-      </c>
-      <c r="R7" s="27" t="n">
-        <v>58</v>
-      </c>
-      <c r="S7" s="27" t="str">
+      <c r="S7" s="26" t="str">
         <f aca="false">_xlfn.CONCAT(D7,"/",E7,"/",F7)</f>
         <v>boat/2022/2</v>
       </c>
@@ -4060,57 +4045,57 @@
         <v>63</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="32" t="n">
+        <v>52</v>
+      </c>
+      <c r="C8" s="30" t="n">
         <v>44907.5034722222</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="26" t="n">
+      <c r="E8" s="24" t="n">
         <v>2022</v>
       </c>
-      <c r="F8" s="26" t="n">
+      <c r="F8" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="G8" s="26" t="n">
+      <c r="G8" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="H8" s="26" t="n">
+      <c r="H8" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="J8" s="26" t="s">
+      <c r="J8" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="27" t="s">
+      <c r="K8" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="L8" s="27" t="s">
+      <c r="L8" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="M8" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="N8" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="O8" s="27" t="n">
+      <c r="M8" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="N8" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="O8" s="26" t="n">
         <v>465</v>
       </c>
-      <c r="P8" s="27" t="n">
+      <c r="P8" s="26" t="n">
         <v>62</v>
       </c>
-      <c r="Q8" s="27" t="n">
+      <c r="Q8" s="26" t="n">
         <v>461</v>
       </c>
-      <c r="R8" s="27" t="n">
+      <c r="R8" s="26" t="n">
         <v>58</v>
       </c>
-      <c r="S8" s="27" t="str">
+      <c r="S8" s="26" t="str">
         <f aca="false">_xlfn.CONCAT(D8,"/",E8,"/",F8)</f>
         <v>boat/2022/3</v>
       </c>
@@ -4120,57 +4105,57 @@
         <v>64</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="32" t="n">
+        <v>52</v>
+      </c>
+      <c r="C9" s="30" t="n">
         <v>44907.5104166667</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="26" t="n">
+      <c r="E9" s="24" t="n">
         <v>2022</v>
       </c>
-      <c r="F9" s="26" t="n">
+      <c r="F9" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="G9" s="26" t="n">
+      <c r="G9" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="H9" s="26" t="n">
+      <c r="H9" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="I9" s="26" t="s">
+      <c r="I9" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="J9" s="26" t="s">
+      <c r="J9" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="27" t="s">
+      <c r="K9" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="L9" s="27" t="s">
+      <c r="L9" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="M9" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="N9" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="O9" s="27" t="n">
+      <c r="M9" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="N9" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="O9" s="26" t="n">
         <v>465</v>
       </c>
-      <c r="P9" s="27" t="n">
+      <c r="P9" s="26" t="n">
         <v>62</v>
       </c>
-      <c r="Q9" s="27" t="n">
+      <c r="Q9" s="26" t="n">
         <v>461</v>
       </c>
-      <c r="R9" s="27" t="n">
+      <c r="R9" s="26" t="n">
         <v>58</v>
       </c>
-      <c r="S9" s="27" t="str">
+      <c r="S9" s="26" t="str">
         <f aca="false">_xlfn.CONCAT(D9,"/",E9,"/",F9)</f>
         <v>boat/2022/3</v>
       </c>
@@ -4180,57 +4165,57 @@
         <v>65</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="32" t="n">
+        <v>52</v>
+      </c>
+      <c r="C10" s="30" t="n">
         <v>44907.5173611111</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="26" t="n">
+      <c r="E10" s="24" t="n">
         <v>2022</v>
       </c>
-      <c r="F10" s="26" t="n">
+      <c r="F10" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="G10" s="26" t="n">
+      <c r="G10" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="H10" s="26" t="n">
+      <c r="H10" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="I10" s="26" t="s">
+      <c r="I10" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="J10" s="26" t="s">
+      <c r="J10" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="27" t="s">
+      <c r="K10" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="L10" s="27" t="s">
+      <c r="L10" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="M10" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="N10" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="O10" s="27" t="n">
+      <c r="M10" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="N10" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="O10" s="26" t="n">
         <v>465</v>
       </c>
-      <c r="P10" s="27" t="n">
+      <c r="P10" s="26" t="n">
         <v>62</v>
       </c>
-      <c r="Q10" s="27" t="n">
+      <c r="Q10" s="26" t="n">
         <v>461</v>
       </c>
-      <c r="R10" s="27" t="n">
+      <c r="R10" s="26" t="n">
         <v>58</v>
       </c>
-      <c r="S10" s="27" t="str">
+      <c r="S10" s="26" t="str">
         <f aca="false">_xlfn.CONCAT(D10,"/",E10,"/",F10)</f>
         <v>boat/2022/3</v>
       </c>
@@ -4240,57 +4225,57 @@
         <v>66</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="32" t="n">
+        <v>67</v>
+      </c>
+      <c r="C11" s="30" t="n">
         <v>44881.5034722222</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="26" t="n">
+      <c r="E11" s="24" t="n">
         <v>2022</v>
       </c>
-      <c r="F11" s="26" t="n">
+      <c r="F11" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G11" s="26" t="n">
+      <c r="G11" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="H11" s="26" t="n">
+      <c r="H11" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="I11" s="26" t="s">
+      <c r="I11" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="J11" s="26" t="s">
+      <c r="J11" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="K11" s="27" t="s">
+      <c r="K11" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="L11" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="M11" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="N11" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="O11" s="27" t="n">
+      <c r="L11" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="M11" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="N11" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="O11" s="26" t="n">
         <v>378</v>
       </c>
-      <c r="P11" s="27" t="n">
+      <c r="P11" s="26" t="n">
         <v>52</v>
       </c>
-      <c r="Q11" s="27" t="n">
+      <c r="Q11" s="26" t="n">
         <v>334</v>
       </c>
-      <c r="R11" s="27" t="n">
+      <c r="R11" s="26" t="n">
         <v>44</v>
       </c>
-      <c r="S11" s="27" t="str">
+      <c r="S11" s="26" t="str">
         <f aca="false">_xlfn.CONCAT(D11,"/",E11,"/",F11)</f>
         <v>undegraded/2022/1</v>
       </c>
@@ -4300,57 +4285,57 @@
         <v>70</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="32" t="n">
+        <v>67</v>
+      </c>
+      <c r="C12" s="30" t="n">
         <v>44881.5104166667</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="26" t="n">
+      <c r="E12" s="24" t="n">
         <v>2022</v>
       </c>
-      <c r="F12" s="26" t="n">
+      <c r="F12" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G12" s="26" t="n">
+      <c r="G12" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="H12" s="26" t="n">
+      <c r="H12" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="I12" s="26" t="s">
+      <c r="I12" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="J12" s="26" t="s">
+      <c r="J12" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="K12" s="27" t="s">
+      <c r="K12" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="L12" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="M12" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="N12" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="O12" s="27" t="n">
+      <c r="L12" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="M12" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="N12" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="O12" s="26" t="n">
         <v>378</v>
       </c>
-      <c r="P12" s="27" t="n">
+      <c r="P12" s="26" t="n">
         <v>52</v>
       </c>
-      <c r="Q12" s="27" t="n">
+      <c r="Q12" s="26" t="n">
         <v>334</v>
       </c>
-      <c r="R12" s="27" t="n">
+      <c r="R12" s="26" t="n">
         <v>44</v>
       </c>
-      <c r="S12" s="27" t="str">
+      <c r="S12" s="26" t="str">
         <f aca="false">_xlfn.CONCAT(D12,"/",E12,"/",F12)</f>
         <v>undegraded/2022/1</v>
       </c>
@@ -4360,57 +4345,57 @@
         <v>71</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="32" t="n">
+        <v>67</v>
+      </c>
+      <c r="C13" s="30" t="n">
         <v>44881.5173611111</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="26" t="n">
+      <c r="E13" s="24" t="n">
         <v>2022</v>
       </c>
-      <c r="F13" s="26" t="n">
+      <c r="F13" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G13" s="26" t="n">
+      <c r="G13" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="H13" s="26" t="n">
+      <c r="H13" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="I13" s="26" t="s">
+      <c r="I13" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="J13" s="26" t="s">
+      <c r="J13" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="K13" s="27" t="s">
+      <c r="K13" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="L13" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="M13" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="N13" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="O13" s="27" t="n">
+      <c r="L13" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="M13" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="N13" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="O13" s="26" t="n">
         <v>378</v>
       </c>
-      <c r="P13" s="27" t="n">
+      <c r="P13" s="26" t="n">
         <v>52</v>
       </c>
-      <c r="Q13" s="27" t="n">
+      <c r="Q13" s="26" t="n">
         <v>334</v>
       </c>
-      <c r="R13" s="27" t="n">
+      <c r="R13" s="26" t="n">
         <v>44</v>
       </c>
-      <c r="S13" s="27" t="str">
+      <c r="S13" s="26" t="str">
         <f aca="false">_xlfn.CONCAT(D13,"/",E13,"/",F13)</f>
         <v>undegraded/2022/1</v>
       </c>
@@ -4420,57 +4405,57 @@
         <v>72</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="32" t="n">
+        <v>67</v>
+      </c>
+      <c r="C14" s="30" t="n">
         <v>44887.5034722222</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="26" t="n">
+      <c r="E14" s="24" t="n">
         <v>2022</v>
       </c>
-      <c r="F14" s="26" t="n">
+      <c r="F14" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="G14" s="26" t="n">
+      <c r="G14" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="H14" s="26" t="n">
+      <c r="H14" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="I14" s="26" t="s">
+      <c r="I14" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="J14" s="26" t="s">
+      <c r="J14" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="K14" s="27" t="s">
+      <c r="K14" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="L14" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="M14" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="N14" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="O14" s="27" t="n">
+      <c r="L14" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="M14" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="N14" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="O14" s="26" t="n">
         <v>378</v>
       </c>
-      <c r="P14" s="27" t="n">
+      <c r="P14" s="26" t="n">
         <v>52</v>
       </c>
-      <c r="Q14" s="27" t="n">
+      <c r="Q14" s="26" t="n">
         <v>334</v>
       </c>
-      <c r="R14" s="27" t="n">
+      <c r="R14" s="26" t="n">
         <v>44</v>
       </c>
-      <c r="S14" s="27" t="str">
+      <c r="S14" s="26" t="str">
         <f aca="false">_xlfn.CONCAT(D14,"/",E14,"/",F14)</f>
         <v>undegraded/2022/2</v>
       </c>
@@ -4480,57 +4465,57 @@
         <v>73</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="32" t="n">
+        <v>67</v>
+      </c>
+      <c r="C15" s="30" t="n">
         <v>44887.5104166667</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="26" t="n">
+      <c r="E15" s="24" t="n">
         <v>2022</v>
       </c>
-      <c r="F15" s="26" t="n">
+      <c r="F15" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="G15" s="26" t="n">
+      <c r="G15" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="H15" s="26" t="n">
+      <c r="H15" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="I15" s="26" t="s">
+      <c r="I15" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="J15" s="26" t="s">
+      <c r="J15" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="K15" s="27" t="s">
+      <c r="K15" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="L15" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="M15" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="N15" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="O15" s="27" t="n">
+      <c r="L15" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="M15" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="N15" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="O15" s="26" t="n">
         <v>378</v>
       </c>
-      <c r="P15" s="27" t="n">
+      <c r="P15" s="26" t="n">
         <v>52</v>
       </c>
-      <c r="Q15" s="27" t="n">
+      <c r="Q15" s="26" t="n">
         <v>334</v>
       </c>
-      <c r="R15" s="27" t="n">
+      <c r="R15" s="26" t="n">
         <v>44</v>
       </c>
-      <c r="S15" s="27" t="str">
+      <c r="S15" s="26" t="str">
         <f aca="false">_xlfn.CONCAT(D15,"/",E15,"/",F15)</f>
         <v>undegraded/2022/2</v>
       </c>
@@ -4540,57 +4525,57 @@
         <v>74</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="32" t="n">
+        <v>67</v>
+      </c>
+      <c r="C16" s="30" t="n">
         <v>44887.5173611111</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="26" t="n">
+      <c r="E16" s="24" t="n">
         <v>2022</v>
       </c>
-      <c r="F16" s="26" t="n">
+      <c r="F16" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="G16" s="26" t="n">
+      <c r="G16" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="H16" s="26" t="n">
+      <c r="H16" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="I16" s="26" t="s">
+      <c r="I16" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="J16" s="26" t="s">
+      <c r="J16" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="K16" s="27" t="s">
+      <c r="K16" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="L16" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="M16" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="N16" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="O16" s="27" t="n">
+      <c r="L16" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="M16" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="N16" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="O16" s="26" t="n">
         <v>378</v>
       </c>
-      <c r="P16" s="27" t="n">
+      <c r="P16" s="26" t="n">
         <v>52</v>
       </c>
-      <c r="Q16" s="27" t="n">
+      <c r="Q16" s="26" t="n">
         <v>334</v>
       </c>
-      <c r="R16" s="27" t="n">
+      <c r="R16" s="26" t="n">
         <v>44</v>
       </c>
-      <c r="S16" s="27" t="str">
+      <c r="S16" s="26" t="str">
         <f aca="false">_xlfn.CONCAT(D16,"/",E16,"/",F16)</f>
         <v>undegraded/2022/2</v>
       </c>
@@ -4600,57 +4585,57 @@
         <v>75</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="32" t="n">
+        <v>67</v>
+      </c>
+      <c r="C17" s="30" t="n">
         <v>44907.5</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="26" t="n">
+      <c r="E17" s="24" t="n">
         <v>2022</v>
       </c>
-      <c r="F17" s="26" t="n">
+      <c r="F17" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="G17" s="26" t="n">
+      <c r="G17" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="H17" s="26" t="n">
+      <c r="H17" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="I17" s="26" t="s">
+      <c r="I17" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="J17" s="26" t="s">
+      <c r="J17" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="K17" s="27" t="s">
+      <c r="K17" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="L17" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="M17" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="N17" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="27" t="n">
+      <c r="L17" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="M17" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="N17" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="26" t="n">
         <v>378</v>
       </c>
-      <c r="P17" s="27" t="n">
+      <c r="P17" s="26" t="n">
         <v>52</v>
       </c>
-      <c r="Q17" s="27" t="n">
+      <c r="Q17" s="26" t="n">
         <v>334</v>
       </c>
-      <c r="R17" s="27" t="n">
+      <c r="R17" s="26" t="n">
         <v>44</v>
       </c>
-      <c r="S17" s="27" t="str">
+      <c r="S17" s="26" t="str">
         <f aca="false">_xlfn.CONCAT(D17,"/",E17,"/",F17)</f>
         <v>undegraded/2022/3</v>
       </c>
@@ -4660,57 +4645,57 @@
         <v>76</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="32" t="n">
+        <v>67</v>
+      </c>
+      <c r="C18" s="30" t="n">
         <v>44907.5069444444</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="26" t="n">
+      <c r="E18" s="24" t="n">
         <v>2022</v>
       </c>
-      <c r="F18" s="26" t="n">
+      <c r="F18" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="G18" s="26" t="n">
+      <c r="G18" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="H18" s="26" t="n">
+      <c r="H18" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="I18" s="26" t="s">
+      <c r="I18" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="J18" s="26" t="s">
+      <c r="J18" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="K18" s="27" t="s">
+      <c r="K18" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="L18" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="M18" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="N18" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="O18" s="27" t="n">
+      <c r="L18" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="M18" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="N18" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="O18" s="26" t="n">
         <v>378</v>
       </c>
-      <c r="P18" s="27" t="n">
+      <c r="P18" s="26" t="n">
         <v>52</v>
       </c>
-      <c r="Q18" s="27" t="n">
+      <c r="Q18" s="26" t="n">
         <v>334</v>
       </c>
-      <c r="R18" s="27" t="n">
+      <c r="R18" s="26" t="n">
         <v>44</v>
       </c>
-      <c r="S18" s="27" t="str">
+      <c r="S18" s="26" t="str">
         <f aca="false">_xlfn.CONCAT(D18,"/",E18,"/",F18)</f>
         <v>undegraded/2022/3</v>
       </c>
@@ -4720,57 +4705,57 @@
         <v>77</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="32" t="n">
+        <v>67</v>
+      </c>
+      <c r="C19" s="30" t="n">
         <v>44907.5138888889</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="26" t="n">
+      <c r="E19" s="24" t="n">
         <v>2022</v>
       </c>
-      <c r="F19" s="26" t="n">
+      <c r="F19" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="G19" s="26" t="n">
+      <c r="G19" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="H19" s="26" t="n">
+      <c r="H19" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="I19" s="26" t="s">
+      <c r="I19" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="J19" s="26" t="s">
+      <c r="J19" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="K19" s="27" t="s">
+      <c r="K19" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="L19" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="M19" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="N19" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="O19" s="27" t="n">
+      <c r="L19" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="M19" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="N19" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="O19" s="26" t="n">
         <v>378</v>
       </c>
-      <c r="P19" s="27" t="n">
+      <c r="P19" s="26" t="n">
         <v>52</v>
       </c>
-      <c r="Q19" s="27" t="n">
+      <c r="Q19" s="26" t="n">
         <v>334</v>
       </c>
-      <c r="R19" s="27" t="n">
+      <c r="R19" s="26" t="n">
         <v>44</v>
       </c>
-      <c r="S19" s="27" t="str">
+      <c r="S19" s="26" t="str">
         <f aca="false">_xlfn.CONCAT(D19,"/",E19,"/",F19)</f>
         <v>undegraded/2022/3</v>
       </c>
@@ -4780,57 +4765,57 @@
         <v>78</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="32" t="n">
+        <v>79</v>
+      </c>
+      <c r="C20" s="30" t="n">
         <v>44881.5</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="E20" s="26" t="n">
+      <c r="E20" s="24" t="n">
         <v>2022</v>
       </c>
-      <c r="F20" s="26" t="n">
+      <c r="F20" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G20" s="26" t="n">
+      <c r="G20" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="H20" s="26" t="n">
+      <c r="H20" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="I20" s="26" t="s">
+      <c r="I20" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="J20" s="26" t="s">
+      <c r="J20" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="K20" s="27" t="s">
+      <c r="K20" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="L20" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="M20" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="N20" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="O20" s="27" t="n">
+      <c r="L20" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="M20" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="N20" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="O20" s="26" t="n">
         <v>509</v>
       </c>
-      <c r="P20" s="27" t="n">
+      <c r="P20" s="26" t="n">
         <v>58</v>
       </c>
-      <c r="Q20" s="27" t="n">
+      <c r="Q20" s="26" t="n">
         <v>486</v>
       </c>
-      <c r="R20" s="27" t="n">
+      <c r="R20" s="26" t="n">
         <v>47</v>
       </c>
-      <c r="S20" s="27" t="str">
+      <c r="S20" s="26" t="str">
         <f aca="false">_xlfn.CONCAT(D20,"/",E20,"/",F20)</f>
         <v>tourist/2022/1</v>
       </c>
@@ -4840,57 +4825,57 @@
         <v>80</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="32" t="n">
+        <v>79</v>
+      </c>
+      <c r="C21" s="30" t="n">
         <v>44881.5069444444</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="E21" s="26" t="n">
+      <c r="E21" s="24" t="n">
         <v>2022</v>
       </c>
-      <c r="F21" s="26" t="n">
+      <c r="F21" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G21" s="26" t="n">
+      <c r="G21" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="H21" s="26" t="n">
+      <c r="H21" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="I21" s="26" t="s">
+      <c r="I21" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="J21" s="26" t="s">
+      <c r="J21" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="K21" s="27" t="s">
+      <c r="K21" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="L21" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="M21" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="N21" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="O21" s="27" t="n">
+      <c r="L21" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="M21" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="N21" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="O21" s="26" t="n">
         <v>509</v>
       </c>
-      <c r="P21" s="27" t="n">
+      <c r="P21" s="26" t="n">
         <v>58</v>
       </c>
-      <c r="Q21" s="27" t="n">
+      <c r="Q21" s="26" t="n">
         <v>486</v>
       </c>
-      <c r="R21" s="27" t="n">
+      <c r="R21" s="26" t="n">
         <v>47</v>
       </c>
-      <c r="S21" s="27" t="str">
+      <c r="S21" s="26" t="str">
         <f aca="false">_xlfn.CONCAT(D21,"/",E21,"/",F21)</f>
         <v>tourist/2022/1</v>
       </c>
@@ -4900,57 +4885,57 @@
         <v>81</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" s="32" t="n">
+        <v>79</v>
+      </c>
+      <c r="C22" s="30" t="n">
         <v>44881.5138888889</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="D22" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="E22" s="26" t="n">
+      <c r="E22" s="24" t="n">
         <v>2022</v>
       </c>
-      <c r="F22" s="26" t="n">
+      <c r="F22" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G22" s="26" t="n">
+      <c r="G22" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="H22" s="26" t="n">
+      <c r="H22" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="I22" s="26" t="s">
+      <c r="I22" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="J22" s="26" t="s">
+      <c r="J22" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="K22" s="27" t="s">
+      <c r="K22" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="L22" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="M22" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="N22" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="O22" s="27" t="n">
+      <c r="L22" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="M22" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="N22" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="O22" s="26" t="n">
         <v>509</v>
       </c>
-      <c r="P22" s="27" t="n">
+      <c r="P22" s="26" t="n">
         <v>58</v>
       </c>
-      <c r="Q22" s="27" t="n">
+      <c r="Q22" s="26" t="n">
         <v>486</v>
       </c>
-      <c r="R22" s="27" t="n">
+      <c r="R22" s="26" t="n">
         <v>47</v>
       </c>
-      <c r="S22" s="27" t="str">
+      <c r="S22" s="26" t="str">
         <f aca="false">_xlfn.CONCAT(D22,"/",E22,"/",F22)</f>
         <v>tourist/2022/1</v>
       </c>
@@ -4960,57 +4945,57 @@
         <v>82</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="32" t="n">
+        <v>79</v>
+      </c>
+      <c r="C23" s="30" t="n">
         <v>44887.5034722222</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="D23" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="E23" s="26" t="n">
+      <c r="E23" s="24" t="n">
         <v>2022</v>
       </c>
-      <c r="F23" s="26" t="n">
+      <c r="F23" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="G23" s="26" t="n">
+      <c r="G23" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="H23" s="26" t="n">
+      <c r="H23" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="I23" s="26" t="s">
+      <c r="I23" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="J23" s="26" t="s">
+      <c r="J23" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="K23" s="27" t="s">
+      <c r="K23" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="L23" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="M23" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="N23" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="O23" s="27" t="n">
+      <c r="L23" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="M23" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="N23" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="O23" s="26" t="n">
         <v>509</v>
       </c>
-      <c r="P23" s="27" t="n">
+      <c r="P23" s="26" t="n">
         <v>58</v>
       </c>
-      <c r="Q23" s="27" t="n">
+      <c r="Q23" s="26" t="n">
         <v>486</v>
       </c>
-      <c r="R23" s="27" t="n">
+      <c r="R23" s="26" t="n">
         <v>47</v>
       </c>
-      <c r="S23" s="27" t="str">
+      <c r="S23" s="26" t="str">
         <f aca="false">_xlfn.CONCAT(D23,"/",E23,"/",F23)</f>
         <v>tourist/2022/2</v>
       </c>
@@ -5020,57 +5005,57 @@
         <v>83</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="32" t="n">
+        <v>79</v>
+      </c>
+      <c r="C24" s="30" t="n">
         <v>44887.5104166667</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="D24" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="E24" s="26" t="n">
+      <c r="E24" s="24" t="n">
         <v>2022</v>
       </c>
-      <c r="F24" s="26" t="n">
+      <c r="F24" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="G24" s="26" t="n">
+      <c r="G24" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="H24" s="26" t="n">
+      <c r="H24" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="I24" s="26" t="s">
+      <c r="I24" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="J24" s="26" t="s">
+      <c r="J24" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="K24" s="27" t="s">
+      <c r="K24" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="L24" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="M24" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="N24" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="O24" s="27" t="n">
+      <c r="L24" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="M24" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="N24" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="O24" s="26" t="n">
         <v>509</v>
       </c>
-      <c r="P24" s="27" t="n">
+      <c r="P24" s="26" t="n">
         <v>58</v>
       </c>
-      <c r="Q24" s="27" t="n">
+      <c r="Q24" s="26" t="n">
         <v>486</v>
       </c>
-      <c r="R24" s="27" t="n">
+      <c r="R24" s="26" t="n">
         <v>47</v>
       </c>
-      <c r="S24" s="27" t="str">
+      <c r="S24" s="26" t="str">
         <f aca="false">_xlfn.CONCAT(D24,"/",E24,"/",F24)</f>
         <v>tourist/2022/2</v>
       </c>
@@ -5080,57 +5065,57 @@
         <v>84</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" s="32" t="n">
+        <v>79</v>
+      </c>
+      <c r="C25" s="30" t="n">
         <v>44887.5173611111</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="D25" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="E25" s="26" t="n">
+      <c r="E25" s="24" t="n">
         <v>2022</v>
       </c>
-      <c r="F25" s="26" t="n">
+      <c r="F25" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="G25" s="26" t="n">
+      <c r="G25" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="H25" s="26" t="n">
+      <c r="H25" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="I25" s="26" t="s">
+      <c r="I25" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="J25" s="26" t="s">
+      <c r="J25" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="K25" s="27" t="s">
+      <c r="K25" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="L25" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="M25" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="N25" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="O25" s="27" t="n">
+      <c r="L25" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="M25" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="N25" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="O25" s="26" t="n">
         <v>509</v>
       </c>
-      <c r="P25" s="27" t="n">
+      <c r="P25" s="26" t="n">
         <v>58</v>
       </c>
-      <c r="Q25" s="27" t="n">
+      <c r="Q25" s="26" t="n">
         <v>486</v>
       </c>
-      <c r="R25" s="27" t="n">
+      <c r="R25" s="26" t="n">
         <v>47</v>
       </c>
-      <c r="S25" s="27" t="str">
+      <c r="S25" s="26" t="str">
         <f aca="false">_xlfn.CONCAT(D25,"/",E25,"/",F25)</f>
         <v>tourist/2022/2</v>
       </c>
@@ -5140,57 +5125,57 @@
         <v>85</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="C26" s="32" t="n">
+        <v>79</v>
+      </c>
+      <c r="C26" s="30" t="n">
         <v>44907.5034722222</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="D26" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="E26" s="26" t="n">
+      <c r="E26" s="24" t="n">
         <v>2022</v>
       </c>
-      <c r="F26" s="26" t="n">
+      <c r="F26" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="G26" s="26" t="n">
+      <c r="G26" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="H26" s="26" t="n">
+      <c r="H26" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="I26" s="26" t="s">
+      <c r="I26" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="J26" s="26" t="s">
+      <c r="J26" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="K26" s="27" t="s">
+      <c r="K26" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="L26" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="M26" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="N26" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="O26" s="27" t="n">
+      <c r="L26" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="M26" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="N26" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="O26" s="26" t="n">
         <v>509</v>
       </c>
-      <c r="P26" s="27" t="n">
+      <c r="P26" s="26" t="n">
         <v>58</v>
       </c>
-      <c r="Q26" s="27" t="n">
+      <c r="Q26" s="26" t="n">
         <v>486</v>
       </c>
-      <c r="R26" s="27" t="n">
+      <c r="R26" s="26" t="n">
         <v>47</v>
       </c>
-      <c r="S26" s="27" t="str">
+      <c r="S26" s="26" t="str">
         <f aca="false">_xlfn.CONCAT(D26,"/",E26,"/",F26)</f>
         <v>tourist/2022/3</v>
       </c>
@@ -5200,57 +5185,57 @@
         <v>86</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" s="32" t="n">
+        <v>79</v>
+      </c>
+      <c r="C27" s="30" t="n">
         <v>44907.5104166667</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="D27" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="E27" s="26" t="n">
+      <c r="E27" s="24" t="n">
         <v>2022</v>
       </c>
-      <c r="F27" s="26" t="n">
+      <c r="F27" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="G27" s="26" t="n">
+      <c r="G27" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="H27" s="26" t="n">
+      <c r="H27" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="I27" s="26" t="s">
+      <c r="I27" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="J27" s="26" t="s">
+      <c r="J27" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="K27" s="27" t="s">
+      <c r="K27" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="L27" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="M27" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="N27" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="O27" s="27" t="n">
+      <c r="L27" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="M27" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="N27" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="O27" s="26" t="n">
         <v>509</v>
       </c>
-      <c r="P27" s="27" t="n">
+      <c r="P27" s="26" t="n">
         <v>58</v>
       </c>
-      <c r="Q27" s="27" t="n">
+      <c r="Q27" s="26" t="n">
         <v>486</v>
       </c>
-      <c r="R27" s="27" t="n">
+      <c r="R27" s="26" t="n">
         <v>47</v>
       </c>
-      <c r="S27" s="27" t="str">
+      <c r="S27" s="26" t="str">
         <f aca="false">_xlfn.CONCAT(D27,"/",E27,"/",F27)</f>
         <v>tourist/2022/3</v>
       </c>
@@ -5260,57 +5245,57 @@
         <v>87</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" s="32" t="n">
+        <v>79</v>
+      </c>
+      <c r="C28" s="30" t="n">
         <v>44907.5173611111</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="D28" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="E28" s="26" t="n">
+      <c r="E28" s="24" t="n">
         <v>2022</v>
       </c>
-      <c r="F28" s="26" t="n">
+      <c r="F28" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="G28" s="26" t="n">
+      <c r="G28" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="H28" s="26" t="n">
+      <c r="H28" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="I28" s="26" t="s">
+      <c r="I28" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="J28" s="26" t="s">
+      <c r="J28" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="K28" s="27" t="s">
+      <c r="K28" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="L28" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="M28" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="N28" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="O28" s="27" t="n">
+      <c r="L28" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="M28" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="N28" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="O28" s="26" t="n">
         <v>509</v>
       </c>
-      <c r="P28" s="27" t="n">
+      <c r="P28" s="26" t="n">
         <v>58</v>
       </c>
-      <c r="Q28" s="27" t="n">
+      <c r="Q28" s="26" t="n">
         <v>486</v>
       </c>
-      <c r="R28" s="27" t="n">
+      <c r="R28" s="26" t="n">
         <v>47</v>
       </c>
-      <c r="S28" s="27" t="str">
+      <c r="S28" s="26" t="str">
         <f aca="false">_xlfn.CONCAT(D28,"/",E28,"/",F28)</f>
         <v>tourist/2022/3</v>
       </c>
@@ -5320,57 +5305,57 @@
         <v>88</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" s="32" t="n">
+        <v>67</v>
+      </c>
+      <c r="C29" s="30" t="n">
         <v>44243.5013888889</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="E29" s="26" t="n">
+      <c r="E29" s="24" t="n">
         <v>2021</v>
       </c>
-      <c r="F29" s="26" t="n">
+      <c r="F29" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G29" s="26" t="n">
+      <c r="G29" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="H29" s="26" t="n">
+      <c r="H29" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="I29" s="26" t="s">
+      <c r="I29" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="J29" s="26" t="s">
+      <c r="J29" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="K29" s="27" t="s">
+      <c r="K29" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="L29" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="M29" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="N29" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="O29" s="27" t="n">
+      <c r="L29" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="M29" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="N29" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="O29" s="26" t="n">
         <v>384</v>
       </c>
-      <c r="P29" s="27" t="n">
+      <c r="P29" s="26" t="n">
         <v>69</v>
       </c>
-      <c r="Q29" s="27" t="n">
+      <c r="Q29" s="26" t="n">
         <v>367</v>
       </c>
-      <c r="R29" s="27" t="n">
+      <c r="R29" s="26" t="n">
         <v>60</v>
       </c>
-      <c r="S29" s="27" t="str">
+      <c r="S29" s="26" t="str">
         <f aca="false">_xlfn.CONCAT(D29,"/",E29,"/",F29)</f>
         <v>undegraded/2021/1</v>
       </c>
@@ -5380,57 +5365,57 @@
         <v>89</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" s="32" t="n">
+        <v>67</v>
+      </c>
+      <c r="C30" s="30" t="n">
         <v>44243.5090277778</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="D30" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="E30" s="26" t="n">
+      <c r="E30" s="24" t="n">
         <v>2021</v>
       </c>
-      <c r="F30" s="26" t="n">
+      <c r="F30" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G30" s="26" t="n">
+      <c r="G30" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="H30" s="26" t="n">
+      <c r="H30" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="I30" s="26" t="s">
+      <c r="I30" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="J30" s="26" t="s">
+      <c r="J30" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="K30" s="27" t="s">
+      <c r="K30" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="L30" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="M30" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="N30" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="O30" s="27" t="n">
+      <c r="L30" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="M30" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="N30" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="O30" s="26" t="n">
         <v>384</v>
       </c>
-      <c r="P30" s="27" t="n">
+      <c r="P30" s="26" t="n">
         <v>69</v>
       </c>
-      <c r="Q30" s="27" t="n">
+      <c r="Q30" s="26" t="n">
         <v>367</v>
       </c>
-      <c r="R30" s="27" t="n">
+      <c r="R30" s="26" t="n">
         <v>60</v>
       </c>
-      <c r="S30" s="27" t="str">
+      <c r="S30" s="26" t="str">
         <f aca="false">_xlfn.CONCAT(D30,"/",E30,"/",F30)</f>
         <v>undegraded/2021/1</v>
       </c>
@@ -5440,57 +5425,57 @@
         <v>90</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="C31" s="32" t="n">
+        <v>67</v>
+      </c>
+      <c r="C31" s="30" t="n">
         <v>44243.5166666667</v>
       </c>
-      <c r="D31" s="26" t="s">
+      <c r="D31" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="26" t="n">
+      <c r="E31" s="24" t="n">
         <v>2021</v>
       </c>
-      <c r="F31" s="26" t="n">
+      <c r="F31" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G31" s="26" t="n">
+      <c r="G31" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="H31" s="26" t="n">
+      <c r="H31" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="I31" s="26" t="s">
+      <c r="I31" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="J31" s="26" t="s">
+      <c r="J31" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="K31" s="27" t="s">
+      <c r="K31" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="L31" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="M31" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="N31" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="O31" s="27" t="n">
+      <c r="L31" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="M31" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="N31" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="O31" s="26" t="n">
         <v>384</v>
       </c>
-      <c r="P31" s="27" t="n">
+      <c r="P31" s="26" t="n">
         <v>69</v>
       </c>
-      <c r="Q31" s="27" t="n">
+      <c r="Q31" s="26" t="n">
         <v>367</v>
       </c>
-      <c r="R31" s="27" t="n">
+      <c r="R31" s="26" t="n">
         <v>60</v>
       </c>
-      <c r="S31" s="27" t="str">
+      <c r="S31" s="26" t="str">
         <f aca="false">_xlfn.CONCAT(D31,"/",E31,"/",F31)</f>
         <v>undegraded/2021/1</v>
       </c>
@@ -5500,57 +5485,57 @@
         <v>91</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="C32" s="32" t="n">
+        <v>67</v>
+      </c>
+      <c r="C32" s="30" t="n">
         <v>44273.5034722222</v>
       </c>
-      <c r="D32" s="26" t="s">
+      <c r="D32" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="E32" s="26" t="n">
+      <c r="E32" s="24" t="n">
         <v>2021</v>
       </c>
-      <c r="F32" s="26" t="n">
+      <c r="F32" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="G32" s="26" t="n">
+      <c r="G32" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="H32" s="26" t="n">
+      <c r="H32" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="I32" s="26" t="s">
+      <c r="I32" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="J32" s="26" t="s">
+      <c r="J32" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="K32" s="27" t="s">
+      <c r="K32" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="L32" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="M32" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="N32" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="O32" s="27" t="n">
+      <c r="L32" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="M32" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="N32" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="O32" s="26" t="n">
         <v>697</v>
       </c>
-      <c r="P32" s="27" t="n">
+      <c r="P32" s="26" t="n">
         <v>88</v>
       </c>
-      <c r="Q32" s="27" t="n">
+      <c r="Q32" s="26" t="n">
         <v>656</v>
       </c>
-      <c r="R32" s="27" t="n">
+      <c r="R32" s="26" t="n">
         <v>72</v>
       </c>
-      <c r="S32" s="27" t="str">
+      <c r="S32" s="26" t="str">
         <f aca="false">_xlfn.CONCAT(D32,"/",E32,"/",F32)</f>
         <v>undegraded/2021/2</v>
       </c>
@@ -5560,57 +5545,57 @@
         <v>92</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="C33" s="32" t="n">
+        <v>67</v>
+      </c>
+      <c r="C33" s="30" t="n">
         <v>44273.5111111111</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="D33" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="E33" s="26" t="n">
+      <c r="E33" s="24" t="n">
         <v>2021</v>
       </c>
-      <c r="F33" s="26" t="n">
+      <c r="F33" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="G33" s="26" t="n">
+      <c r="G33" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="H33" s="26" t="n">
+      <c r="H33" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="I33" s="26" t="s">
+      <c r="I33" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="J33" s="26" t="s">
+      <c r="J33" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="K33" s="27" t="s">
+      <c r="K33" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="L33" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="M33" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="N33" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="O33" s="27" t="n">
+      <c r="L33" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="M33" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="N33" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="O33" s="26" t="n">
         <v>697</v>
       </c>
-      <c r="P33" s="27" t="n">
+      <c r="P33" s="26" t="n">
         <v>88</v>
       </c>
-      <c r="Q33" s="27" t="n">
+      <c r="Q33" s="26" t="n">
         <v>656</v>
       </c>
-      <c r="R33" s="27" t="n">
+      <c r="R33" s="26" t="n">
         <v>72</v>
       </c>
-      <c r="S33" s="27" t="str">
+      <c r="S33" s="26" t="str">
         <f aca="false">_xlfn.CONCAT(D33,"/",E33,"/",F33)</f>
         <v>undegraded/2021/2</v>
       </c>
@@ -5620,57 +5605,57 @@
         <v>93</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C34" s="32" t="n">
+        <v>67</v>
+      </c>
+      <c r="C34" s="30" t="n">
         <v>44273.51875</v>
       </c>
-      <c r="D34" s="26" t="s">
+      <c r="D34" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="E34" s="26" t="n">
+      <c r="E34" s="24" t="n">
         <v>2021</v>
       </c>
-      <c r="F34" s="26" t="n">
+      <c r="F34" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="G34" s="26" t="n">
+      <c r="G34" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="H34" s="26" t="n">
+      <c r="H34" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="I34" s="26" t="s">
+      <c r="I34" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="J34" s="26" t="s">
+      <c r="J34" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="K34" s="27" t="s">
+      <c r="K34" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="L34" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="M34" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="N34" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="O34" s="27" t="n">
+      <c r="L34" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="M34" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="N34" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="O34" s="26" t="n">
         <v>697</v>
       </c>
-      <c r="P34" s="27" t="n">
+      <c r="P34" s="26" t="n">
         <v>88</v>
       </c>
-      <c r="Q34" s="27" t="n">
+      <c r="Q34" s="26" t="n">
         <v>656</v>
       </c>
-      <c r="R34" s="27" t="n">
+      <c r="R34" s="26" t="n">
         <v>72</v>
       </c>
-      <c r="S34" s="27" t="str">
+      <c r="S34" s="26" t="str">
         <f aca="false">_xlfn.CONCAT(D34,"/",E34,"/",F34)</f>
         <v>undegraded/2021/2</v>
       </c>
@@ -5680,57 +5665,57 @@
         <v>94</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="C35" s="32" t="n">
+        <v>67</v>
+      </c>
+      <c r="C35" s="30" t="n">
         <v>44300.5034722222</v>
       </c>
-      <c r="D35" s="26" t="s">
+      <c r="D35" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="E35" s="26" t="n">
+      <c r="E35" s="24" t="n">
         <v>2021</v>
       </c>
-      <c r="F35" s="26" t="n">
+      <c r="F35" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="G35" s="26" t="n">
+      <c r="G35" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="H35" s="26" t="n">
+      <c r="H35" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="I35" s="26" t="s">
+      <c r="I35" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="J35" s="26" t="s">
+      <c r="J35" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="K35" s="27" t="s">
+      <c r="K35" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="L35" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="M35" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="N35" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="O35" s="27" t="n">
+      <c r="L35" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="M35" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="N35" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="O35" s="26" t="n">
         <v>1794</v>
       </c>
-      <c r="P35" s="27" t="n">
+      <c r="P35" s="26" t="n">
         <v>194</v>
       </c>
-      <c r="Q35" s="27" t="n">
+      <c r="Q35" s="26" t="n">
         <v>1500</v>
       </c>
-      <c r="R35" s="27" t="n">
+      <c r="R35" s="26" t="n">
         <v>146</v>
       </c>
-      <c r="S35" s="27" t="str">
+      <c r="S35" s="26" t="str">
         <f aca="false">_xlfn.CONCAT(D35,"/",E35,"/",F35)</f>
         <v>undegraded/2021/3</v>
       </c>
@@ -5740,57 +5725,57 @@
         <v>95</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="C36" s="32" t="n">
+        <v>67</v>
+      </c>
+      <c r="C36" s="30" t="n">
         <v>44300.5111111111</v>
       </c>
-      <c r="D36" s="26" t="s">
+      <c r="D36" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="E36" s="26" t="n">
+      <c r="E36" s="24" t="n">
         <v>2021</v>
       </c>
-      <c r="F36" s="26" t="n">
+      <c r="F36" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="G36" s="26" t="n">
+      <c r="G36" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="H36" s="26" t="n">
+      <c r="H36" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="I36" s="26" t="s">
+      <c r="I36" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="J36" s="26" t="s">
+      <c r="J36" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="K36" s="27" t="s">
+      <c r="K36" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="L36" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="M36" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="N36" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="O36" s="27" t="n">
+      <c r="L36" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="M36" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="N36" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="O36" s="26" t="n">
         <v>1794</v>
       </c>
-      <c r="P36" s="27" t="n">
+      <c r="P36" s="26" t="n">
         <v>194</v>
       </c>
-      <c r="Q36" s="27" t="n">
+      <c r="Q36" s="26" t="n">
         <v>1500</v>
       </c>
-      <c r="R36" s="27" t="n">
+      <c r="R36" s="26" t="n">
         <v>146</v>
       </c>
-      <c r="S36" s="27" t="str">
+      <c r="S36" s="26" t="str">
         <f aca="false">_xlfn.CONCAT(D36,"/",E36,"/",F36)</f>
         <v>undegraded/2021/3</v>
       </c>
@@ -5800,57 +5785,57 @@
         <v>96</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="C37" s="32" t="n">
+        <v>67</v>
+      </c>
+      <c r="C37" s="30" t="n">
         <v>44300.51875</v>
       </c>
-      <c r="D37" s="26" t="s">
+      <c r="D37" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="E37" s="26" t="n">
+      <c r="E37" s="24" t="n">
         <v>2021</v>
       </c>
-      <c r="F37" s="26" t="n">
+      <c r="F37" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="G37" s="26" t="n">
+      <c r="G37" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="H37" s="26" t="n">
+      <c r="H37" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="I37" s="26" t="s">
+      <c r="I37" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="J37" s="26" t="s">
+      <c r="J37" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="K37" s="27" t="s">
+      <c r="K37" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="L37" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="M37" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="N37" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="O37" s="27" t="n">
+      <c r="L37" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="M37" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="N37" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="O37" s="26" t="n">
         <v>1794</v>
       </c>
-      <c r="P37" s="27" t="n">
+      <c r="P37" s="26" t="n">
         <v>194</v>
       </c>
-      <c r="Q37" s="27" t="n">
+      <c r="Q37" s="26" t="n">
         <v>1500</v>
       </c>
-      <c r="R37" s="27" t="n">
+      <c r="R37" s="26" t="n">
         <v>146</v>
       </c>
-      <c r="S37" s="27" t="str">
+      <c r="S37" s="26" t="str">
         <f aca="false">_xlfn.CONCAT(D37,"/",E37,"/",F37)</f>
         <v>undegraded/2021/3</v>
       </c>
@@ -5860,57 +5845,57 @@
         <v>97</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="C38" s="32" t="n">
+        <v>52</v>
+      </c>
+      <c r="C38" s="30" t="n">
         <v>44245.5041666667</v>
       </c>
-      <c r="D38" s="26" t="s">
+      <c r="D38" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="E38" s="26" t="n">
+      <c r="E38" s="24" t="n">
         <v>2021</v>
       </c>
-      <c r="F38" s="26" t="n">
+      <c r="F38" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G38" s="26" t="n">
+      <c r="G38" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="H38" s="26" t="n">
+      <c r="H38" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="I38" s="26" t="s">
+      <c r="I38" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="J38" s="26" t="s">
+      <c r="J38" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="K38" s="27" t="s">
+      <c r="K38" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="L38" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="M38" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="N38" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="O38" s="27" t="n">
+      <c r="L38" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="M38" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="N38" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="O38" s="26" t="n">
         <v>352</v>
       </c>
-      <c r="P38" s="27" t="n">
+      <c r="P38" s="26" t="n">
         <v>50</v>
       </c>
-      <c r="Q38" s="27" t="n">
+      <c r="Q38" s="26" t="n">
         <v>347</v>
       </c>
-      <c r="R38" s="27" t="n">
+      <c r="R38" s="26" t="n">
         <v>46</v>
       </c>
-      <c r="S38" s="27" t="str">
+      <c r="S38" s="26" t="str">
         <f aca="false">_xlfn.CONCAT(D38,"/",E38,"/",F38)</f>
         <v>boat/2021/1</v>
       </c>
@@ -5920,57 +5905,57 @@
         <v>98</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="C39" s="32" t="n">
+        <v>52</v>
+      </c>
+      <c r="C39" s="30" t="n">
         <v>44245.5118055556</v>
       </c>
-      <c r="D39" s="26" t="s">
+      <c r="D39" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="E39" s="26" t="n">
+      <c r="E39" s="24" t="n">
         <v>2021</v>
       </c>
-      <c r="F39" s="26" t="n">
+      <c r="F39" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G39" s="26" t="n">
+      <c r="G39" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="H39" s="26" t="n">
+      <c r="H39" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="I39" s="26" t="s">
+      <c r="I39" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="J39" s="26" t="s">
+      <c r="J39" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="K39" s="27" t="s">
+      <c r="K39" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="L39" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="M39" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="N39" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="O39" s="27" t="n">
+      <c r="L39" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="M39" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="N39" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="O39" s="26" t="n">
         <v>352</v>
       </c>
-      <c r="P39" s="27" t="n">
+      <c r="P39" s="26" t="n">
         <v>50</v>
       </c>
-      <c r="Q39" s="27" t="n">
+      <c r="Q39" s="26" t="n">
         <v>347</v>
       </c>
-      <c r="R39" s="27" t="n">
+      <c r="R39" s="26" t="n">
         <v>46</v>
       </c>
-      <c r="S39" s="27" t="str">
+      <c r="S39" s="26" t="str">
         <f aca="false">_xlfn.CONCAT(D39,"/",E39,"/",F39)</f>
         <v>boat/2021/1</v>
       </c>
@@ -5980,57 +5965,57 @@
         <v>99</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C40" s="32" t="n">
+        <v>52</v>
+      </c>
+      <c r="C40" s="30" t="n">
         <v>44245.5194444444</v>
       </c>
-      <c r="D40" s="26" t="s">
+      <c r="D40" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="E40" s="26" t="n">
+      <c r="E40" s="24" t="n">
         <v>2021</v>
       </c>
-      <c r="F40" s="26" t="n">
+      <c r="F40" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G40" s="26" t="n">
+      <c r="G40" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="H40" s="26" t="n">
+      <c r="H40" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="I40" s="26" t="s">
+      <c r="I40" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="J40" s="26" t="s">
+      <c r="J40" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="K40" s="27" t="s">
+      <c r="K40" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="L40" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="M40" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="N40" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="O40" s="27" t="n">
+      <c r="L40" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="M40" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="N40" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="O40" s="26" t="n">
         <v>352</v>
       </c>
-      <c r="P40" s="27" t="n">
+      <c r="P40" s="26" t="n">
         <v>50</v>
       </c>
-      <c r="Q40" s="27" t="n">
+      <c r="Q40" s="26" t="n">
         <v>347</v>
       </c>
-      <c r="R40" s="27" t="n">
+      <c r="R40" s="26" t="n">
         <v>46</v>
       </c>
-      <c r="S40" s="27" t="str">
+      <c r="S40" s="26" t="str">
         <f aca="false">_xlfn.CONCAT(D40,"/",E40,"/",F40)</f>
         <v>boat/2021/1</v>
       </c>
@@ -6040,57 +6025,57 @@
         <v>100</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="C41" s="32" t="n">
+        <v>52</v>
+      </c>
+      <c r="C41" s="30" t="n">
         <v>44271.5027777778</v>
       </c>
-      <c r="D41" s="26" t="s">
+      <c r="D41" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="E41" s="26" t="n">
+      <c r="E41" s="24" t="n">
         <v>2021</v>
       </c>
-      <c r="F41" s="26" t="n">
+      <c r="F41" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="G41" s="26" t="n">
+      <c r="G41" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="H41" s="26" t="n">
+      <c r="H41" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="I41" s="26" t="s">
+      <c r="I41" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="J41" s="26" t="s">
+      <c r="J41" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="K41" s="27" t="s">
+      <c r="K41" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="L41" s="27" t="s">
+      <c r="L41" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="M41" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="N41" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="O41" s="27" t="n">
+      <c r="M41" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="N41" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="O41" s="26" t="n">
         <v>497</v>
       </c>
-      <c r="P41" s="27" t="n">
+      <c r="P41" s="26" t="n">
         <v>45</v>
       </c>
-      <c r="Q41" s="27" t="n">
+      <c r="Q41" s="26" t="n">
         <v>483</v>
       </c>
-      <c r="R41" s="27" t="n">
+      <c r="R41" s="26" t="n">
         <v>42</v>
       </c>
-      <c r="S41" s="27" t="str">
+      <c r="S41" s="26" t="str">
         <f aca="false">_xlfn.CONCAT(D41,"/",E41,"/",F41)</f>
         <v>boat/2021/2</v>
       </c>
@@ -6100,57 +6085,57 @@
         <v>101</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="C42" s="32" t="n">
+        <v>52</v>
+      </c>
+      <c r="C42" s="30" t="n">
         <v>44271.5104166667</v>
       </c>
-      <c r="D42" s="26" t="s">
+      <c r="D42" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="E42" s="26" t="n">
+      <c r="E42" s="24" t="n">
         <v>2021</v>
       </c>
-      <c r="F42" s="26" t="n">
+      <c r="F42" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="G42" s="26" t="n">
+      <c r="G42" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="H42" s="26" t="n">
+      <c r="H42" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="I42" s="26" t="s">
+      <c r="I42" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="J42" s="26" t="s">
+      <c r="J42" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="K42" s="27" t="s">
+      <c r="K42" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="L42" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="M42" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="N42" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="O42" s="27" t="n">
+      <c r="L42" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="M42" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="N42" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="O42" s="26" t="n">
         <v>497</v>
       </c>
-      <c r="P42" s="27" t="n">
+      <c r="P42" s="26" t="n">
         <v>45</v>
       </c>
-      <c r="Q42" s="27" t="n">
+      <c r="Q42" s="26" t="n">
         <v>483</v>
       </c>
-      <c r="R42" s="27" t="n">
+      <c r="R42" s="26" t="n">
         <v>42</v>
       </c>
-      <c r="S42" s="27" t="str">
+      <c r="S42" s="26" t="str">
         <f aca="false">_xlfn.CONCAT(D42,"/",E42,"/",F42)</f>
         <v>boat/2021/2</v>
       </c>
@@ -6160,57 +6145,57 @@
         <v>102</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="C43" s="32" t="n">
+        <v>52</v>
+      </c>
+      <c r="C43" s="30" t="n">
         <v>44271.5180555556</v>
       </c>
-      <c r="D43" s="26" t="s">
+      <c r="D43" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="E43" s="26" t="n">
+      <c r="E43" s="24" t="n">
         <v>2021</v>
       </c>
-      <c r="F43" s="26" t="n">
+      <c r="F43" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="G43" s="26" t="n">
+      <c r="G43" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="H43" s="26" t="n">
+      <c r="H43" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="I43" s="26" t="s">
+      <c r="I43" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="J43" s="26" t="s">
+      <c r="J43" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="K43" s="27" t="s">
+      <c r="K43" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="L43" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="M43" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="N43" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="O43" s="27" t="n">
+      <c r="L43" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="M43" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="N43" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="O43" s="26" t="n">
         <v>497</v>
       </c>
-      <c r="P43" s="27" t="n">
+      <c r="P43" s="26" t="n">
         <v>45</v>
       </c>
-      <c r="Q43" s="27" t="n">
+      <c r="Q43" s="26" t="n">
         <v>483</v>
       </c>
-      <c r="R43" s="27" t="n">
+      <c r="R43" s="26" t="n">
         <v>42</v>
       </c>
-      <c r="S43" s="27" t="str">
+      <c r="S43" s="26" t="str">
         <f aca="false">_xlfn.CONCAT(D43,"/",E43,"/",F43)</f>
         <v>boat/2021/2</v>
       </c>
@@ -6220,57 +6205,57 @@
         <v>103</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="C44" s="32" t="n">
+        <v>52</v>
+      </c>
+      <c r="C44" s="30" t="n">
         <v>44305.5027777778</v>
       </c>
-      <c r="D44" s="26" t="s">
+      <c r="D44" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="E44" s="26" t="n">
+      <c r="E44" s="24" t="n">
         <v>2021</v>
       </c>
-      <c r="F44" s="26" t="n">
+      <c r="F44" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="G44" s="26" t="n">
+      <c r="G44" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="H44" s="26" t="n">
+      <c r="H44" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="I44" s="26" t="s">
+      <c r="I44" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="J44" s="26" t="s">
+      <c r="J44" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="K44" s="27" t="s">
+      <c r="K44" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="L44" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="M44" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="N44" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="O44" s="27" t="n">
+      <c r="L44" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="M44" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="N44" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="O44" s="26" t="n">
         <v>1178</v>
       </c>
-      <c r="P44" s="27" t="n">
+      <c r="P44" s="26" t="n">
         <v>100</v>
       </c>
-      <c r="Q44" s="27" t="n">
+      <c r="Q44" s="26" t="n">
         <v>1092</v>
       </c>
-      <c r="R44" s="27" t="n">
+      <c r="R44" s="26" t="n">
         <v>90</v>
       </c>
-      <c r="S44" s="27" t="str">
+      <c r="S44" s="26" t="str">
         <f aca="false">_xlfn.CONCAT(D44,"/",E44,"/",F44)</f>
         <v>boat/2021/3</v>
       </c>
@@ -6280,57 +6265,57 @@
         <v>104</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="C45" s="32" t="n">
+        <v>52</v>
+      </c>
+      <c r="C45" s="30" t="n">
         <v>44305.5104166667</v>
       </c>
-      <c r="D45" s="26" t="s">
+      <c r="D45" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="E45" s="26" t="n">
+      <c r="E45" s="24" t="n">
         <v>2021</v>
       </c>
-      <c r="F45" s="26" t="n">
+      <c r="F45" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="G45" s="26" t="n">
+      <c r="G45" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="H45" s="26" t="n">
+      <c r="H45" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="I45" s="26" t="s">
+      <c r="I45" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="J45" s="26" t="s">
+      <c r="J45" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="K45" s="27" t="s">
+      <c r="K45" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="L45" s="27" t="s">
+      <c r="L45" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="M45" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="N45" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="O45" s="27" t="n">
+      <c r="M45" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="N45" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="O45" s="26" t="n">
         <v>1178</v>
       </c>
-      <c r="P45" s="27" t="n">
+      <c r="P45" s="26" t="n">
         <v>100</v>
       </c>
-      <c r="Q45" s="27" t="n">
+      <c r="Q45" s="26" t="n">
         <v>1092</v>
       </c>
-      <c r="R45" s="27" t="n">
+      <c r="R45" s="26" t="n">
         <v>90</v>
       </c>
-      <c r="S45" s="27" t="str">
+      <c r="S45" s="26" t="str">
         <f aca="false">_xlfn.CONCAT(D45,"/",E45,"/",F45)</f>
         <v>boat/2021/3</v>
       </c>
@@ -6340,57 +6325,57 @@
         <v>105</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="C46" s="32" t="n">
+        <v>52</v>
+      </c>
+      <c r="C46" s="30" t="n">
         <v>44305.5180555556</v>
       </c>
-      <c r="D46" s="26" t="s">
+      <c r="D46" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="E46" s="26" t="n">
+      <c r="E46" s="24" t="n">
         <v>2021</v>
       </c>
-      <c r="F46" s="26" t="n">
+      <c r="F46" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="G46" s="26" t="n">
+      <c r="G46" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="H46" s="26" t="n">
+      <c r="H46" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="I46" s="26" t="s">
+      <c r="I46" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="J46" s="26" t="s">
+      <c r="J46" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="K46" s="27" t="s">
+      <c r="K46" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="L46" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="M46" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="N46" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="O46" s="27" t="n">
+      <c r="L46" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="M46" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="N46" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="O46" s="26" t="n">
         <v>1178</v>
       </c>
-      <c r="P46" s="27" t="n">
+      <c r="P46" s="26" t="n">
         <v>100</v>
       </c>
-      <c r="Q46" s="27" t="n">
+      <c r="Q46" s="26" t="n">
         <v>1092</v>
       </c>
-      <c r="R46" s="27" t="n">
+      <c r="R46" s="26" t="n">
         <v>90</v>
       </c>
-      <c r="S46" s="27" t="str">
+      <c r="S46" s="26" t="str">
         <f aca="false">_xlfn.CONCAT(D46,"/",E46,"/",F46)</f>
         <v>boat/2021/3</v>
       </c>
@@ -6400,57 +6385,57 @@
         <v>106</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="C47" s="32" t="n">
+        <v>79</v>
+      </c>
+      <c r="C47" s="30" t="n">
         <v>44243.5055555556</v>
       </c>
-      <c r="D47" s="26" t="s">
+      <c r="D47" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="E47" s="26" t="n">
+      <c r="E47" s="24" t="n">
         <v>2021</v>
       </c>
-      <c r="F47" s="26" t="n">
+      <c r="F47" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G47" s="26" t="n">
+      <c r="G47" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="H47" s="26" t="n">
+      <c r="H47" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="I47" s="26" t="s">
+      <c r="I47" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="J47" s="26" t="s">
+      <c r="J47" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="K47" s="27" t="s">
+      <c r="K47" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="L47" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="M47" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="N47" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="O47" s="27" t="n">
+      <c r="L47" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="M47" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="N47" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="O47" s="26" t="n">
         <v>387</v>
       </c>
-      <c r="P47" s="27" t="n">
+      <c r="P47" s="26" t="n">
         <v>65</v>
       </c>
-      <c r="Q47" s="27" t="n">
+      <c r="Q47" s="26" t="n">
         <v>369</v>
       </c>
-      <c r="R47" s="27" t="n">
+      <c r="R47" s="26" t="n">
         <v>54</v>
       </c>
-      <c r="S47" s="27" t="str">
+      <c r="S47" s="26" t="str">
         <f aca="false">_xlfn.CONCAT(D47,"/",E47,"/",F47)</f>
         <v>tourist/2021/1</v>
       </c>
@@ -6460,57 +6445,57 @@
         <v>107</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="C48" s="32" t="n">
+        <v>79</v>
+      </c>
+      <c r="C48" s="30" t="n">
         <v>44243.5131944445</v>
       </c>
-      <c r="D48" s="26" t="s">
+      <c r="D48" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="E48" s="26" t="n">
+      <c r="E48" s="24" t="n">
         <v>2021</v>
       </c>
-      <c r="F48" s="26" t="n">
+      <c r="F48" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G48" s="26" t="n">
+      <c r="G48" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="H48" s="26" t="n">
+      <c r="H48" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="I48" s="26" t="s">
+      <c r="I48" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="J48" s="26" t="s">
+      <c r="J48" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="K48" s="27" t="s">
+      <c r="K48" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="L48" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="M48" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="N48" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="O48" s="27" t="n">
+      <c r="L48" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="M48" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="N48" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="O48" s="26" t="n">
         <v>387</v>
       </c>
-      <c r="P48" s="27" t="n">
+      <c r="P48" s="26" t="n">
         <v>65</v>
       </c>
-      <c r="Q48" s="27" t="n">
+      <c r="Q48" s="26" t="n">
         <v>369</v>
       </c>
-      <c r="R48" s="27" t="n">
+      <c r="R48" s="26" t="n">
         <v>54</v>
       </c>
-      <c r="S48" s="27" t="str">
+      <c r="S48" s="26" t="str">
         <f aca="false">_xlfn.CONCAT(D48,"/",E48,"/",F48)</f>
         <v>tourist/2021/1</v>
       </c>
@@ -6520,57 +6505,57 @@
         <v>108</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="C49" s="32" t="n">
+        <v>79</v>
+      </c>
+      <c r="C49" s="30" t="n">
         <v>44243.5208333333</v>
       </c>
-      <c r="D49" s="26" t="s">
+      <c r="D49" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="E49" s="26" t="n">
+      <c r="E49" s="24" t="n">
         <v>2021</v>
       </c>
-      <c r="F49" s="26" t="n">
+      <c r="F49" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G49" s="26" t="n">
+      <c r="G49" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="H49" s="26" t="n">
+      <c r="H49" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="I49" s="26" t="s">
+      <c r="I49" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="J49" s="26" t="s">
+      <c r="J49" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="K49" s="27" t="s">
+      <c r="K49" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="L49" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="M49" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="N49" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="O49" s="27" t="n">
+      <c r="L49" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="M49" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="N49" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="O49" s="26" t="n">
         <v>387</v>
       </c>
-      <c r="P49" s="27" t="n">
+      <c r="P49" s="26" t="n">
         <v>65</v>
       </c>
-      <c r="Q49" s="27" t="n">
+      <c r="Q49" s="26" t="n">
         <v>369</v>
       </c>
-      <c r="R49" s="27" t="n">
+      <c r="R49" s="26" t="n">
         <v>54</v>
       </c>
-      <c r="S49" s="27" t="str">
+      <c r="S49" s="26" t="str">
         <f aca="false">_xlfn.CONCAT(D49,"/",E49,"/",F49)</f>
         <v>tourist/2021/1</v>
       </c>
@@ -6580,57 +6565,57 @@
         <v>109</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="C50" s="32" t="n">
+        <v>79</v>
+      </c>
+      <c r="C50" s="30" t="n">
         <v>44273.5</v>
       </c>
-      <c r="D50" s="26" t="s">
+      <c r="D50" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="E50" s="26" t="n">
+      <c r="E50" s="24" t="n">
         <v>2021</v>
       </c>
-      <c r="F50" s="26" t="n">
+      <c r="F50" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="G50" s="26" t="n">
+      <c r="G50" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="H50" s="26" t="n">
+      <c r="H50" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="I50" s="26" t="s">
+      <c r="I50" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="J50" s="26" t="s">
+      <c r="J50" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="K50" s="27" t="s">
+      <c r="K50" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="L50" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="M50" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="N50" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="O50" s="27" t="n">
+      <c r="L50" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="M50" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="N50" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="O50" s="26" t="n">
         <v>680</v>
       </c>
-      <c r="P50" s="27" t="n">
+      <c r="P50" s="26" t="n">
         <v>87</v>
       </c>
-      <c r="Q50" s="27" t="n">
+      <c r="Q50" s="26" t="n">
         <v>606</v>
       </c>
-      <c r="R50" s="27" t="n">
+      <c r="R50" s="26" t="n">
         <v>63</v>
       </c>
-      <c r="S50" s="27" t="str">
+      <c r="S50" s="26" t="str">
         <f aca="false">_xlfn.CONCAT(D50,"/",E50,"/",F50)</f>
         <v>tourist/2021/2</v>
       </c>
@@ -6640,57 +6625,57 @@
         <v>110</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="C51" s="32" t="n">
+        <v>79</v>
+      </c>
+      <c r="C51" s="30" t="n">
         <v>44273.5076388889</v>
       </c>
-      <c r="D51" s="26" t="s">
+      <c r="D51" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="E51" s="26" t="n">
+      <c r="E51" s="24" t="n">
         <v>2021</v>
       </c>
-      <c r="F51" s="26" t="n">
+      <c r="F51" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="G51" s="26" t="n">
+      <c r="G51" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="H51" s="26" t="n">
+      <c r="H51" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="I51" s="26" t="s">
+      <c r="I51" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="J51" s="26" t="s">
+      <c r="J51" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="K51" s="27" t="s">
+      <c r="K51" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="L51" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="M51" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="N51" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="O51" s="27" t="n">
+      <c r="L51" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="M51" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="N51" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="O51" s="26" t="n">
         <v>680</v>
       </c>
-      <c r="P51" s="27" t="n">
+      <c r="P51" s="26" t="n">
         <v>87</v>
       </c>
-      <c r="Q51" s="27" t="n">
+      <c r="Q51" s="26" t="n">
         <v>606</v>
       </c>
-      <c r="R51" s="27" t="n">
+      <c r="R51" s="26" t="n">
         <v>63</v>
       </c>
-      <c r="S51" s="27" t="str">
+      <c r="S51" s="26" t="str">
         <f aca="false">_xlfn.CONCAT(D51,"/",E51,"/",F51)</f>
         <v>tourist/2021/2</v>
       </c>
@@ -6700,57 +6685,57 @@
         <v>111</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="C52" s="32" t="n">
+        <v>79</v>
+      </c>
+      <c r="C52" s="30" t="n">
         <v>44273.5152777778</v>
       </c>
-      <c r="D52" s="26" t="s">
+      <c r="D52" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="E52" s="26" t="n">
+      <c r="E52" s="24" t="n">
         <v>2021</v>
       </c>
-      <c r="F52" s="26" t="n">
+      <c r="F52" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="G52" s="26" t="n">
+      <c r="G52" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="H52" s="26" t="n">
+      <c r="H52" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="I52" s="26" t="s">
+      <c r="I52" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="J52" s="26" t="s">
+      <c r="J52" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="K52" s="27" t="s">
+      <c r="K52" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="L52" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="M52" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="N52" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="O52" s="27" t="n">
+      <c r="L52" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="M52" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="N52" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="O52" s="26" t="n">
         <v>680</v>
       </c>
-      <c r="P52" s="27" t="n">
+      <c r="P52" s="26" t="n">
         <v>87</v>
       </c>
-      <c r="Q52" s="27" t="n">
+      <c r="Q52" s="26" t="n">
         <v>606</v>
       </c>
-      <c r="R52" s="27" t="n">
+      <c r="R52" s="26" t="n">
         <v>63</v>
       </c>
-      <c r="S52" s="27" t="str">
+      <c r="S52" s="26" t="str">
         <f aca="false">_xlfn.CONCAT(D52,"/",E52,"/",F52)</f>
         <v>tourist/2021/2</v>
       </c>
@@ -6760,57 +6745,57 @@
         <v>112</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="C53" s="32" t="n">
+        <v>79</v>
+      </c>
+      <c r="C53" s="30" t="n">
         <v>44299.5069444445</v>
       </c>
-      <c r="D53" s="26" t="s">
+      <c r="D53" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="E53" s="26" t="n">
+      <c r="E53" s="24" t="n">
         <v>2021</v>
       </c>
-      <c r="F53" s="26" t="n">
+      <c r="F53" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="G53" s="26" t="n">
+      <c r="G53" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="H53" s="26" t="n">
+      <c r="H53" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="I53" s="26" t="s">
+      <c r="I53" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="J53" s="26" t="s">
+      <c r="J53" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="K53" s="27" t="s">
+      <c r="K53" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="L53" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="M53" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="N53" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="O53" s="27" t="n">
+      <c r="L53" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="M53" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="N53" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="O53" s="26" t="n">
         <v>1258</v>
       </c>
-      <c r="P53" s="27" t="n">
+      <c r="P53" s="26" t="n">
         <v>103</v>
       </c>
-      <c r="Q53" s="27" t="n">
+      <c r="Q53" s="26" t="n">
         <v>1175</v>
       </c>
-      <c r="R53" s="27" t="n">
+      <c r="R53" s="26" t="n">
         <v>86</v>
       </c>
-      <c r="S53" s="27" t="str">
+      <c r="S53" s="26" t="str">
         <f aca="false">_xlfn.CONCAT(D53,"/",E53,"/",F53)</f>
         <v>tourist/2021/3</v>
       </c>
@@ -6820,57 +6805,57 @@
         <v>113</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="C54" s="32" t="n">
+        <v>79</v>
+      </c>
+      <c r="C54" s="30" t="n">
         <v>44299.5145833333</v>
       </c>
-      <c r="D54" s="26" t="s">
+      <c r="D54" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="E54" s="26" t="n">
+      <c r="E54" s="24" t="n">
         <v>2021</v>
       </c>
-      <c r="F54" s="26" t="n">
+      <c r="F54" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="G54" s="26" t="n">
+      <c r="G54" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="H54" s="26" t="n">
+      <c r="H54" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="I54" s="26" t="s">
+      <c r="I54" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="J54" s="26" t="s">
+      <c r="J54" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="K54" s="27" t="s">
+      <c r="K54" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="L54" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="M54" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="N54" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="O54" s="27" t="n">
+      <c r="L54" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="M54" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="N54" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="O54" s="26" t="n">
         <v>1258</v>
       </c>
-      <c r="P54" s="27" t="n">
+      <c r="P54" s="26" t="n">
         <v>103</v>
       </c>
-      <c r="Q54" s="27" t="n">
+      <c r="Q54" s="26" t="n">
         <v>1175</v>
       </c>
-      <c r="R54" s="27" t="n">
+      <c r="R54" s="26" t="n">
         <v>86</v>
       </c>
-      <c r="S54" s="27" t="str">
+      <c r="S54" s="26" t="str">
         <f aca="false">_xlfn.CONCAT(D54,"/",E54,"/",F54)</f>
         <v>tourist/2021/3</v>
       </c>
@@ -6880,57 +6865,57 @@
         <v>114</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="C55" s="32" t="n">
+        <v>79</v>
+      </c>
+      <c r="C55" s="30" t="n">
         <v>44299.5222222222</v>
       </c>
-      <c r="D55" s="26" t="s">
+      <c r="D55" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="E55" s="26" t="n">
+      <c r="E55" s="24" t="n">
         <v>2021</v>
       </c>
-      <c r="F55" s="26" t="n">
+      <c r="F55" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="G55" s="26" t="n">
+      <c r="G55" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="H55" s="26" t="n">
+      <c r="H55" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="I55" s="26" t="s">
+      <c r="I55" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="J55" s="26" t="s">
+      <c r="J55" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="K55" s="27" t="s">
+      <c r="K55" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="L55" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="M55" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="N55" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="O55" s="27" t="n">
+      <c r="L55" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="M55" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="N55" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="O55" s="26" t="n">
         <v>1258</v>
       </c>
-      <c r="P55" s="27" t="n">
+      <c r="P55" s="26" t="n">
         <v>103</v>
       </c>
-      <c r="Q55" s="27" t="n">
+      <c r="Q55" s="26" t="n">
         <v>1175</v>
       </c>
-      <c r="R55" s="27" t="n">
+      <c r="R55" s="26" t="n">
         <v>86</v>
       </c>
-      <c r="S55" s="27" t="str">
+      <c r="S55" s="26" t="str">
         <f aca="false">_xlfn.CONCAT(D55,"/",E55,"/",F55)</f>
         <v>tourist/2021/3</v>
       </c>
@@ -6958,49 +6943,60 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="33" width="11.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="34" width="11.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="31" width="11.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="32" width="11.84"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1017" min="4" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="34" t="n">
+      <c r="B2" s="32" t="n">
         <v>70</v>
       </c>
-      <c r="C2" s="34" t="n">
+      <c r="C2" s="32" t="n">
         <v>2000</v>
       </c>
     </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="32" t="n">
+        <v>20</v>
+      </c>
+      <c r="C3" s="32" t="n">
+        <v>20000</v>
+      </c>
+    </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -7025,40 +7021,48 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="33" width="14.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="34" width="18.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="31" width="14.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="32" width="18.97"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1016" min="3" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>120</v>
       </c>
+      <c r="B1" s="27" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="B2" s="34" t="n">
+      <c r="A2" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="32" t="n">
         <v>15</v>
       </c>
     </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="32" t="n">
+        <v>5</v>
+      </c>
+    </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="26"/>
+      <c r="B4" s="24"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="26"/>
+      <c r="B5" s="24"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="26"/>
+      <c r="B6" s="24"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -7088,64 +7092,64 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="33" width="13.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="34" width="20.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="31" width="13.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="32" width="20.03"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1017" min="4" style="1" width="11.52"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1018" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>124</v>
       </c>
+      <c r="B1" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="31" t="n">
+      <c r="A2" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="29" t="n">
         <v>44562.5</v>
       </c>
-      <c r="C2" s="31" t="n">
+      <c r="C2" s="29" t="n">
         <v>44926.5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="B3" s="31" t="n">
+      <c r="A3" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="29" t="n">
         <v>44881.5</v>
       </c>
-      <c r="C3" s="31" t="n">
+      <c r="C3" s="29" t="n">
         <v>44882.5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="B4" s="32" t="n">
+      <c r="A4" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="30" t="n">
         <v>44887.5</v>
       </c>
-      <c r="C4" s="31" t="n">
+      <c r="C4" s="29" t="n">
         <v>44888.5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="B5" s="32" t="n">
+      <c r="A5" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="30" t="n">
         <v>44907.5</v>
       </c>
-      <c r="C5" s="32" t="n">
+      <c r="C5" s="30" t="n">
         <v>44908.5</v>
       </c>
     </row>
@@ -7177,98 +7181,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="33" width="16.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="34" width="26.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="34" width="18.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="31" width="16.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="32" width="26.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="32" width="18.2"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1012" min="7" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="E1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="B1" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="27" t="s">
         <v>132</v>
       </c>
+      <c r="E1" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="B2" s="31" t="n">
+      <c r="A2" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="29" t="n">
         <v>44881.5</v>
       </c>
-      <c r="C2" s="31" t="n">
+      <c r="C2" s="29" t="n">
         <v>44882.5034722222</v>
       </c>
-      <c r="D2" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="E2" s="31" t="s">
+      <c r="D2" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="31" t="s">
-        <v>135</v>
+      <c r="F2" s="29" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="29" t="n">
+        <v>44887.5</v>
+      </c>
+      <c r="C3" s="29" t="n">
+        <v>44888.5034722222</v>
+      </c>
+      <c r="D3" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="31" t="n">
-        <v>44887.5</v>
-      </c>
-      <c r="C3" s="31" t="n">
-        <v>44888.5034722222</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="F3" s="31" t="s">
-        <v>135</v>
+      <c r="F3" s="29" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="29" t="n">
+        <v>44907.5</v>
+      </c>
+      <c r="C4" s="29" t="n">
+        <v>44908.5034722222</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="31" t="n">
-        <v>44907.5</v>
-      </c>
-      <c r="C4" s="31" t="n">
-        <v>44908.5034722222</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="E4" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="31" t="s">
-        <v>135</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -7308,85 +7312,85 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="36" width="10.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="37" width="14.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="38" width="17.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="38" width="15.45"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="39" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="34" width="10.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="35" width="14.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="36" width="17.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="36" width="15.45"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="37" width="11.52"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1013" min="6" style="1" width="11.52"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1014" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="B1" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="C1" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="D1" s="40" t="s">
+      <c r="A1" s="38" t="s">
         <v>140</v>
       </c>
+      <c r="B1" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="B2" s="37" t="n">
+      <c r="A2" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="38" t="n">
+      <c r="C2" s="36" t="n">
         <v>1000</v>
       </c>
-      <c r="D2" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="39" t="str">
+      <c r="D2" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="37" t="str">
         <f aca="false">VLOOKUP(A2,ListExtractors!$A$2:$B$1048576,2,0)</f>
         <v>The VGGish neural network.</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="36" t="s">
-        <v>142</v>
+      <c r="A3" s="34" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="36" t="s">
-        <v>143</v>
+      <c r="A4" s="34" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="36" t="s">
-        <v>144</v>
+      <c r="A5" s="34" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="36" t="s">
-        <v>145</v>
+      <c r="A6" s="34" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="36" t="s">
-        <v>146</v>
+      <c r="A7" s="34" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="36" t="s">
-        <v>147</v>
+      <c r="A8" s="34" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="36" t="s">
-        <v>148</v>
+      <c r="A9" s="34" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="36" t="s">
-        <v>149</v>
+      <c r="A10" s="34" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -7423,83 +7427,83 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="41" width="15.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="39" width="15.63"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1012" min="2" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="40" t="s">
-        <v>150</v>
+      <c r="A1" s="38" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="B2" s="39" t="str">
+      <c r="A2" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="37" t="str">
         <f aca="false">VLOOKUP(A2,ListDigesters!$A$2:$B$1048576,2,0)</f>
         <v>The silhouette between subtypes of a given cluster.</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="41" t="s">
-        <v>152</v>
-      </c>
-      <c r="B3" s="39" t="str">
+      <c r="A3" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="37" t="str">
         <f aca="false">VLOOKUP(A3,ListDigesters!$A$2:$B$1048576,2,0)</f>
         <v>Contingency between two clusters.</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="41" t="s">
-        <v>153</v>
-      </c>
-      <c r="B4" s="39" t="str">
+      <c r="A4" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" s="37" t="str">
         <f aca="false">VLOOKUP(A4,ListDigesters!$A$2:$B$1048576,2,0)</f>
         <v>The sum variance.</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="41" t="s">
-        <v>154</v>
-      </c>
-      <c r="B5" s="39" t="str">
+      <c r="A5" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="37" t="str">
         <f aca="false">VLOOKUP(A5,ListDigesters!$A$2:$B$1048576,2,0)</f>
         <v>The sum standard deviation.</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="B6" s="39" t="str">
+      <c r="A6" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" s="37" t="str">
         <f aca="false">VLOOKUP(A6,ListDigesters!$A$2:$B$1048576,2,0)</f>
         <v>The mean standard deviation.</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="B7" s="39" t="str">
+      <c r="A7" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" s="37" t="str">
         <f aca="false">VLOOKUP(A7,ListDigesters!$A$2:$B$1048576,2,0)</f>
         <v>The mean spreading.</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="41" t="s">
-        <v>157</v>
-      </c>
-      <c r="B8" s="39" t="str">
+      <c r="A8" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" s="37" t="str">
         <f aca="false">VLOOKUP(A8,ListDigesters!$A$2:$B$1048576,2,0)</f>
         <v>The distance between subtypes of a given cluster.</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="B9" s="39" t="str">
+      <c r="A9" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" s="37" t="str">
         <f aca="false">VLOOKUP(A9,ListDigesters!$A$2:$B$1048576,2,0)</f>
         <v>The overlap between subtypes of a given cluster.</v>
       </c>

--- a/examples/campaigns/coral-reef-light-test-full/coral-reef-light-test-full.xlsx
+++ b/examples/campaigns/coral-reef-light-test-full/coral-reef-light-test-full.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Help" sheetId="1" state="visible" r:id="rId2"/>
@@ -37,7 +37,7 @@
 <file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>BS</author>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0">
@@ -182,7 +182,7 @@
 <file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>BS</author>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0">
@@ -258,7 +258,7 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>BS</author>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0">
@@ -295,7 +295,7 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>BS</author>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0">
@@ -344,7 +344,7 @@
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>BS</author>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0">
@@ -380,7 +380,7 @@
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>BS</author>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0">
@@ -429,7 +429,7 @@
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>BS</author>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0">
@@ -517,7 +517,7 @@
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>BS</author>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0">
@@ -580,7 +580,7 @@
 <file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>BS</author>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0">
@@ -602,7 +602,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="197">
   <si>
     <t xml:space="preserve">SoundScapeExplorer
 Version 13</t>
@@ -625,12 +625,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://sound-scape-explorer.github.io/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campaign user guide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://sound-scape-explorer.github.io/docs/modules/campaign/user-guide/</t>
   </si>
   <si>
     <t xml:space="preserve">setting</t>
@@ -1218,13 +1212,22 @@
     <t xml:space="preserve">hdbscan-leaf</t>
   </si>
   <si>
-    <t xml:space="preserve">indicator</t>
-  </si>
-  <si>
     <t xml:space="preserve">description</t>
   </si>
   <si>
     <t xml:space="preserve">The VGGish neural network.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">melogram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The melogram (VGGish input)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">melspectrum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The melspectrum (over 1s with same other parameters than melogram)</t>
   </si>
   <si>
     <t xml:space="preserve">The Leq using maad library.</t>
@@ -1754,9 +1757,9 @@
     <tabColor rgb="FFDDDDDD"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMI13"/>
+  <dimension ref="A1:AMI12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1829,14 +1832,6 @@
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:B5"/>
@@ -1844,7 +1839,6 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B11" r:id="rId1" display="https://sound-scape-explorer.github.io/"/>
-    <hyperlink ref="B13" r:id="rId2" display="https://sound-scape-explorer.github.io/docs/modules/campaign/user-guide/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1882,24 +1876,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="D1" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="E1" s="40" t="s">
         <v>163</v>
-      </c>
-      <c r="D1" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="E1" s="40" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="34" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B2" s="36" t="n">
         <v>2</v>
@@ -1910,7 +1904,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="34" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B3" s="35" t="n">
         <v>3</v>
@@ -1918,7 +1912,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="34" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B4" s="35" t="n">
         <v>2</v>
@@ -1926,7 +1920,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="34" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B5" s="35" t="n">
         <v>3</v>
@@ -1980,24 +1974,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="D1" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="E1" s="38" t="s">
         <v>170</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="E1" s="38" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="34" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B2" s="36" t="n">
         <v>15</v>
@@ -2014,7 +2008,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="34" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B3" s="35" t="n">
         <v>15</v>
@@ -2061,7 +2055,7 @@
     <tabColor rgb="FFDDDDDD"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -2074,88 +2068,104 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="42" width="16.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="43" width="42.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="43" width="59.23"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1015" min="3" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="44" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="B1" s="45" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="42" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="42" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="42" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="42" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="42" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="42" t="s">
-        <v>148</v>
-      </c>
-      <c r="B7" s="47" t="s">
-        <v>182</v>
+        <v>144</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="42" t="s">
-        <v>149</v>
-      </c>
-      <c r="B8" s="47" t="s">
-        <v>183</v>
+        <v>145</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="42" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B9" s="47" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="42" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B10" s="47" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" s="47" t="s">
         <v>185</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -2194,74 +2204,74 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="44" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B1" s="45" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="42" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="42" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="42" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="42" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="42" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="42" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="42" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="42" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2302,17 +2312,17 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="44" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="42" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="42" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2350,17 +2360,17 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="44" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="42" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="42" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -2394,22 +2404,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="44" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="42" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="42" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="42" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2447,68 +2457,68 @@
   <sheetData>
     <row r="1" s="13" customFormat="true" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AMJ1" s="14"/>
     </row>
     <row r="2" s="13" customFormat="true" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>11</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>13</v>
       </c>
       <c r="AMJ2" s="14"/>
     </row>
     <row r="3" s="13" customFormat="true" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>14</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>16</v>
       </c>
       <c r="AMJ3" s="14"/>
     </row>
     <row r="4" s="13" customFormat="true" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" s="16" t="n">
         <v>44100</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AMJ4" s="14"/>
     </row>
     <row r="5" s="13" customFormat="true" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="18" t="n">
         <v>44197</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AMJ5" s="14"/>
     </row>
     <row r="6" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
@@ -3534,49 +3544,49 @@
     </row>
     <row r="7" s="13" customFormat="true" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>23</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>25</v>
       </c>
       <c r="AMJ7" s="14"/>
     </row>
     <row r="8" s="13" customFormat="true" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8" s="22" t="n">
         <v>3</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AMJ8" s="14"/>
     </row>
     <row r="9" s="13" customFormat="true" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B9" s="22" t="n">
         <v>10</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AMJ9" s="14"/>
     </row>
     <row r="10" s="13" customFormat="true" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B10" s="22" t="n">
         <v>42000</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AMJ10" s="14"/>
     </row>
@@ -3602,7 +3612,7 @@
   </sheetPr>
   <dimension ref="A1:S55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -3623,75 +3633,75 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="D1" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="E1" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="F1" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="G1" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="H1" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="I1" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="J1" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="K1" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="L1" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="M1" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="N1" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="O1" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="P1" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="Q1" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="R1" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="S1" s="27" t="s">
         <v>48</v>
-      </c>
-      <c r="R1" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="S1" s="27" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C2" s="29" t="n">
         <v>44881.5034722222</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E2" s="24" t="n">
         <v>2022</v>
@@ -3706,22 +3716,22 @@
         <v>5</v>
       </c>
       <c r="I2" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="K2" s="26" t="s">
-        <v>55</v>
-      </c>
       <c r="L2" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M2" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N2" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O2" s="26" t="n">
         <v>465</v>
@@ -3742,16 +3752,16 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C3" s="29" t="n">
         <v>44881.5104166667</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E3" s="24" t="n">
         <v>2022</v>
@@ -3766,22 +3776,22 @@
         <v>5</v>
       </c>
       <c r="I3" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="J3" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="K3" s="26" t="s">
-        <v>55</v>
-      </c>
       <c r="L3" s="26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M3" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N3" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O3" s="26" t="n">
         <v>465</v>
@@ -3802,16 +3812,16 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C4" s="29" t="n">
         <v>44881.5173611111</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E4" s="24" t="n">
         <v>2022</v>
@@ -3826,22 +3836,22 @@
         <v>5</v>
       </c>
       <c r="I4" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="J4" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="K4" s="26" t="s">
-        <v>55</v>
-      </c>
       <c r="L4" s="26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M4" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N4" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O4" s="26" t="n">
         <v>465</v>
@@ -3862,16 +3872,16 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C5" s="30" t="n">
         <v>44887.5</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E5" s="24" t="n">
         <v>2022</v>
@@ -3886,22 +3896,22 @@
         <v>5</v>
       </c>
       <c r="I5" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="K5" s="26" t="s">
-        <v>55</v>
-      </c>
       <c r="L5" s="26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M5" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N5" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O5" s="26" t="n">
         <v>465</v>
@@ -3922,16 +3932,16 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C6" s="30" t="n">
         <v>44887.5069444444</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E6" s="24" t="n">
         <v>2022</v>
@@ -3946,22 +3956,22 @@
         <v>5</v>
       </c>
       <c r="I6" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="J6" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="K6" s="26" t="s">
-        <v>55</v>
-      </c>
       <c r="L6" s="26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M6" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N6" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O6" s="26" t="n">
         <v>465</v>
@@ -3982,16 +3992,16 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C7" s="30" t="n">
         <v>44887.5138888889</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E7" s="24" t="n">
         <v>2022</v>
@@ -4006,22 +4016,22 @@
         <v>5</v>
       </c>
       <c r="I7" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="J7" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="K7" s="26" t="s">
-        <v>55</v>
-      </c>
       <c r="L7" s="26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M7" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N7" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O7" s="26" t="n">
         <v>465</v>
@@ -4042,16 +4052,16 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C8" s="30" t="n">
         <v>44907.5034722222</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E8" s="24" t="n">
         <v>2022</v>
@@ -4066,22 +4076,22 @@
         <v>5</v>
       </c>
       <c r="I8" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="J8" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="K8" s="26" t="s">
-        <v>55</v>
-      </c>
       <c r="L8" s="26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M8" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N8" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O8" s="26" t="n">
         <v>465</v>
@@ -4102,16 +4112,16 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C9" s="30" t="n">
         <v>44907.5104166667</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E9" s="24" t="n">
         <v>2022</v>
@@ -4126,22 +4136,22 @@
         <v>5</v>
       </c>
       <c r="I9" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="J9" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="K9" s="26" t="s">
-        <v>55</v>
-      </c>
       <c r="L9" s="26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M9" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N9" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O9" s="26" t="n">
         <v>465</v>
@@ -4162,16 +4172,16 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C10" s="30" t="n">
         <v>44907.5173611111</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E10" s="24" t="n">
         <v>2022</v>
@@ -4186,22 +4196,22 @@
         <v>5</v>
       </c>
       <c r="I10" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="J10" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="K10" s="26" t="s">
-        <v>55</v>
-      </c>
       <c r="L10" s="26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M10" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N10" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O10" s="26" t="n">
         <v>465</v>
@@ -4222,16 +4232,16 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C11" s="30" t="n">
         <v>44881.5034722222</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E11" s="24" t="n">
         <v>2022</v>
@@ -4246,22 +4256,22 @@
         <v>2</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J11" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K11" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L11" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M11" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N11" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O11" s="26" t="n">
         <v>378</v>
@@ -4282,16 +4292,16 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C12" s="30" t="n">
         <v>44881.5104166667</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E12" s="24" t="n">
         <v>2022</v>
@@ -4306,22 +4316,22 @@
         <v>2</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K12" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L12" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M12" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N12" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O12" s="26" t="n">
         <v>378</v>
@@ -4342,16 +4352,16 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C13" s="30" t="n">
         <v>44881.5173611111</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E13" s="24" t="n">
         <v>2022</v>
@@ -4366,22 +4376,22 @@
         <v>2</v>
       </c>
       <c r="I13" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J13" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K13" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L13" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M13" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N13" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O13" s="26" t="n">
         <v>378</v>
@@ -4402,16 +4412,16 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C14" s="30" t="n">
         <v>44887.5034722222</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E14" s="24" t="n">
         <v>2022</v>
@@ -4426,22 +4436,22 @@
         <v>2</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K14" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L14" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M14" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N14" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O14" s="26" t="n">
         <v>378</v>
@@ -4462,16 +4472,16 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C15" s="30" t="n">
         <v>44887.5104166667</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E15" s="24" t="n">
         <v>2022</v>
@@ -4486,22 +4496,22 @@
         <v>2</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J15" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K15" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L15" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M15" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N15" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O15" s="26" t="n">
         <v>378</v>
@@ -4522,16 +4532,16 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="23" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C16" s="30" t="n">
         <v>44887.5173611111</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E16" s="24" t="n">
         <v>2022</v>
@@ -4546,22 +4556,22 @@
         <v>2</v>
       </c>
       <c r="I16" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J16" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K16" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L16" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M16" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N16" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O16" s="26" t="n">
         <v>378</v>
@@ -4582,16 +4592,16 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C17" s="30" t="n">
         <v>44907.5</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E17" s="24" t="n">
         <v>2022</v>
@@ -4606,22 +4616,22 @@
         <v>2</v>
       </c>
       <c r="I17" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J17" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K17" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L17" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M17" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N17" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O17" s="26" t="n">
         <v>378</v>
@@ -4642,16 +4652,16 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C18" s="30" t="n">
         <v>44907.5069444444</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E18" s="24" t="n">
         <v>2022</v>
@@ -4666,22 +4676,22 @@
         <v>2</v>
       </c>
       <c r="I18" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K18" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L18" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M18" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N18" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O18" s="26" t="n">
         <v>378</v>
@@ -4702,16 +4712,16 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C19" s="30" t="n">
         <v>44907.5138888889</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E19" s="24" t="n">
         <v>2022</v>
@@ -4726,22 +4736,22 @@
         <v>2</v>
       </c>
       <c r="I19" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J19" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K19" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L19" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M19" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N19" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O19" s="26" t="n">
         <v>378</v>
@@ -4762,16 +4772,16 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C20" s="30" t="n">
         <v>44881.5</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E20" s="24" t="n">
         <v>2022</v>
@@ -4786,22 +4796,22 @@
         <v>2</v>
       </c>
       <c r="I20" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K20" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L20" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M20" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N20" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O20" s="26" t="n">
         <v>509</v>
@@ -4822,16 +4832,16 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C21" s="30" t="n">
         <v>44881.5069444444</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E21" s="24" t="n">
         <v>2022</v>
@@ -4846,22 +4856,22 @@
         <v>2</v>
       </c>
       <c r="I21" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J21" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K21" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L21" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M21" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N21" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O21" s="26" t="n">
         <v>509</v>
@@ -4882,16 +4892,16 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C22" s="30" t="n">
         <v>44881.5138888889</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E22" s="24" t="n">
         <v>2022</v>
@@ -4906,22 +4916,22 @@
         <v>2</v>
       </c>
       <c r="I22" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J22" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K22" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L22" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M22" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N22" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O22" s="26" t="n">
         <v>509</v>
@@ -4942,16 +4952,16 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C23" s="30" t="n">
         <v>44887.5034722222</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E23" s="24" t="n">
         <v>2022</v>
@@ -4966,22 +4976,22 @@
         <v>2</v>
       </c>
       <c r="I23" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J23" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K23" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L23" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M23" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N23" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O23" s="26" t="n">
         <v>509</v>
@@ -5002,16 +5012,16 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C24" s="30" t="n">
         <v>44887.5104166667</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E24" s="24" t="n">
         <v>2022</v>
@@ -5026,22 +5036,22 @@
         <v>2</v>
       </c>
       <c r="I24" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J24" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K24" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L24" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M24" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N24" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O24" s="26" t="n">
         <v>509</v>
@@ -5062,16 +5072,16 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C25" s="30" t="n">
         <v>44887.5173611111</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E25" s="24" t="n">
         <v>2022</v>
@@ -5086,22 +5096,22 @@
         <v>2</v>
       </c>
       <c r="I25" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J25" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K25" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L25" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M25" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N25" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O25" s="26" t="n">
         <v>509</v>
@@ -5122,16 +5132,16 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C26" s="30" t="n">
         <v>44907.5034722222</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E26" s="24" t="n">
         <v>2022</v>
@@ -5146,22 +5156,22 @@
         <v>2</v>
       </c>
       <c r="I26" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J26" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K26" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L26" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M26" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N26" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O26" s="26" t="n">
         <v>509</v>
@@ -5182,16 +5192,16 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C27" s="30" t="n">
         <v>44907.5104166667</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E27" s="24" t="n">
         <v>2022</v>
@@ -5206,22 +5216,22 @@
         <v>2</v>
       </c>
       <c r="I27" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J27" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K27" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L27" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M27" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N27" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O27" s="26" t="n">
         <v>509</v>
@@ -5242,16 +5252,16 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C28" s="30" t="n">
         <v>44907.5173611111</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E28" s="24" t="n">
         <v>2022</v>
@@ -5266,22 +5276,22 @@
         <v>2</v>
       </c>
       <c r="I28" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J28" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K28" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L28" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M28" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N28" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O28" s="26" t="n">
         <v>509</v>
@@ -5302,16 +5312,16 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C29" s="30" t="n">
         <v>44243.5013888889</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E29" s="24" t="n">
         <v>2021</v>
@@ -5326,22 +5336,22 @@
         <v>2</v>
       </c>
       <c r="I29" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J29" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K29" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L29" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M29" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N29" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O29" s="26" t="n">
         <v>384</v>
@@ -5362,16 +5372,16 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C30" s="30" t="n">
         <v>44243.5090277778</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E30" s="24" t="n">
         <v>2021</v>
@@ -5386,22 +5396,22 @@
         <v>2</v>
       </c>
       <c r="I30" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J30" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K30" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L30" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M30" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N30" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O30" s="26" t="n">
         <v>384</v>
@@ -5422,16 +5432,16 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C31" s="30" t="n">
         <v>44243.5166666667</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E31" s="24" t="n">
         <v>2021</v>
@@ -5446,22 +5456,22 @@
         <v>2</v>
       </c>
       <c r="I31" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J31" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K31" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L31" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M31" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N31" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O31" s="26" t="n">
         <v>384</v>
@@ -5482,16 +5492,16 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="23" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C32" s="30" t="n">
         <v>44273.5034722222</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E32" s="24" t="n">
         <v>2021</v>
@@ -5506,22 +5516,22 @@
         <v>2</v>
       </c>
       <c r="I32" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J32" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K32" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L32" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M32" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N32" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O32" s="26" t="n">
         <v>697</v>
@@ -5542,16 +5552,16 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C33" s="30" t="n">
         <v>44273.5111111111</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E33" s="24" t="n">
         <v>2021</v>
@@ -5566,22 +5576,22 @@
         <v>2</v>
       </c>
       <c r="I33" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J33" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K33" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L33" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M33" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N33" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O33" s="26" t="n">
         <v>697</v>
@@ -5602,16 +5612,16 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C34" s="30" t="n">
         <v>44273.51875</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E34" s="24" t="n">
         <v>2021</v>
@@ -5626,22 +5636,22 @@
         <v>2</v>
       </c>
       <c r="I34" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J34" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K34" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L34" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M34" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N34" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O34" s="26" t="n">
         <v>697</v>
@@ -5662,16 +5672,16 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C35" s="30" t="n">
         <v>44300.5034722222</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E35" s="24" t="n">
         <v>2021</v>
@@ -5686,22 +5696,22 @@
         <v>2</v>
       </c>
       <c r="I35" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J35" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K35" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L35" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M35" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N35" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O35" s="26" t="n">
         <v>1794</v>
@@ -5722,16 +5732,16 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C36" s="30" t="n">
         <v>44300.5111111111</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E36" s="24" t="n">
         <v>2021</v>
@@ -5746,22 +5756,22 @@
         <v>2</v>
       </c>
       <c r="I36" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J36" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K36" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L36" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M36" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N36" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O36" s="26" t="n">
         <v>1794</v>
@@ -5782,16 +5792,16 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="23" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C37" s="30" t="n">
         <v>44300.51875</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E37" s="24" t="n">
         <v>2021</v>
@@ -5806,22 +5816,22 @@
         <v>2</v>
       </c>
       <c r="I37" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J37" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K37" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L37" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M37" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N37" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O37" s="26" t="n">
         <v>1794</v>
@@ -5842,16 +5852,16 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C38" s="30" t="n">
         <v>44245.5041666667</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E38" s="24" t="n">
         <v>2021</v>
@@ -5866,22 +5876,22 @@
         <v>5</v>
       </c>
       <c r="I38" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="J38" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="K38" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="J38" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="K38" s="26" t="s">
-        <v>55</v>
-      </c>
       <c r="L38" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M38" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N38" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O38" s="26" t="n">
         <v>352</v>
@@ -5902,16 +5912,16 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="23" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C39" s="30" t="n">
         <v>44245.5118055556</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E39" s="24" t="n">
         <v>2021</v>
@@ -5926,22 +5936,22 @@
         <v>5</v>
       </c>
       <c r="I39" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="J39" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="K39" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="J39" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="K39" s="26" t="s">
-        <v>55</v>
-      </c>
       <c r="L39" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M39" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N39" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O39" s="26" t="n">
         <v>352</v>
@@ -5962,16 +5972,16 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C40" s="30" t="n">
         <v>44245.5194444444</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E40" s="24" t="n">
         <v>2021</v>
@@ -5986,22 +5996,22 @@
         <v>5</v>
       </c>
       <c r="I40" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="J40" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="K40" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="J40" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="K40" s="26" t="s">
-        <v>55</v>
-      </c>
       <c r="L40" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M40" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N40" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O40" s="26" t="n">
         <v>352</v>
@@ -6022,16 +6032,16 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C41" s="30" t="n">
         <v>44271.5027777778</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E41" s="24" t="n">
         <v>2021</v>
@@ -6046,22 +6056,22 @@
         <v>5</v>
       </c>
       <c r="I41" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="J41" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="K41" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="J41" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="K41" s="26" t="s">
-        <v>55</v>
-      </c>
       <c r="L41" s="26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M41" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N41" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O41" s="26" t="n">
         <v>497</v>
@@ -6082,16 +6092,16 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="23" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C42" s="30" t="n">
         <v>44271.5104166667</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E42" s="24" t="n">
         <v>2021</v>
@@ -6106,22 +6116,22 @@
         <v>5</v>
       </c>
       <c r="I42" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="J42" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="K42" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="J42" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="K42" s="26" t="s">
-        <v>55</v>
-      </c>
       <c r="L42" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M42" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N42" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O42" s="26" t="n">
         <v>497</v>
@@ -6142,16 +6152,16 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="23" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C43" s="30" t="n">
         <v>44271.5180555556</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E43" s="24" t="n">
         <v>2021</v>
@@ -6166,22 +6176,22 @@
         <v>5</v>
       </c>
       <c r="I43" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="J43" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="K43" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="J43" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="K43" s="26" t="s">
-        <v>55</v>
-      </c>
       <c r="L43" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M43" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N43" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O43" s="26" t="n">
         <v>497</v>
@@ -6202,16 +6212,16 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C44" s="30" t="n">
         <v>44305.5027777778</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E44" s="24" t="n">
         <v>2021</v>
@@ -6226,22 +6236,22 @@
         <v>5</v>
       </c>
       <c r="I44" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="J44" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="K44" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="J44" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="K44" s="26" t="s">
-        <v>55</v>
-      </c>
       <c r="L44" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M44" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N44" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O44" s="26" t="n">
         <v>1178</v>
@@ -6262,16 +6272,16 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="23" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C45" s="30" t="n">
         <v>44305.5104166667</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E45" s="24" t="n">
         <v>2021</v>
@@ -6286,22 +6296,22 @@
         <v>5</v>
       </c>
       <c r="I45" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="J45" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="K45" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="J45" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="K45" s="26" t="s">
-        <v>55</v>
-      </c>
       <c r="L45" s="26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M45" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N45" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O45" s="26" t="n">
         <v>1178</v>
@@ -6322,16 +6332,16 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="23" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C46" s="30" t="n">
         <v>44305.5180555556</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E46" s="24" t="n">
         <v>2021</v>
@@ -6346,22 +6356,22 @@
         <v>5</v>
       </c>
       <c r="I46" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="J46" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="K46" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="J46" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="K46" s="26" t="s">
-        <v>55</v>
-      </c>
       <c r="L46" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M46" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N46" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O46" s="26" t="n">
         <v>1178</v>
@@ -6382,16 +6392,16 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="23" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C47" s="30" t="n">
         <v>44243.5055555556</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E47" s="24" t="n">
         <v>2021</v>
@@ -6406,22 +6416,22 @@
         <v>2</v>
       </c>
       <c r="I47" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J47" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K47" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L47" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M47" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N47" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O47" s="26" t="n">
         <v>387</v>
@@ -6442,16 +6452,16 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C48" s="30" t="n">
         <v>44243.5131944445</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E48" s="24" t="n">
         <v>2021</v>
@@ -6466,22 +6476,22 @@
         <v>2</v>
       </c>
       <c r="I48" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J48" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K48" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L48" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M48" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N48" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O48" s="26" t="n">
         <v>387</v>
@@ -6502,16 +6512,16 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C49" s="30" t="n">
         <v>44243.5208333333</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E49" s="24" t="n">
         <v>2021</v>
@@ -6526,22 +6536,22 @@
         <v>2</v>
       </c>
       <c r="I49" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J49" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K49" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L49" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M49" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N49" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O49" s="26" t="n">
         <v>387</v>
@@ -6562,16 +6572,16 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C50" s="30" t="n">
         <v>44273.5</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E50" s="24" t="n">
         <v>2021</v>
@@ -6586,22 +6596,22 @@
         <v>2</v>
       </c>
       <c r="I50" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J50" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K50" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L50" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M50" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N50" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O50" s="26" t="n">
         <v>680</v>
@@ -6622,16 +6632,16 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="23" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C51" s="30" t="n">
         <v>44273.5076388889</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E51" s="24" t="n">
         <v>2021</v>
@@ -6646,22 +6656,22 @@
         <v>2</v>
       </c>
       <c r="I51" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J51" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K51" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L51" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M51" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N51" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O51" s="26" t="n">
         <v>680</v>
@@ -6682,16 +6692,16 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="23" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C52" s="30" t="n">
         <v>44273.5152777778</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E52" s="24" t="n">
         <v>2021</v>
@@ -6706,22 +6716,22 @@
         <v>2</v>
       </c>
       <c r="I52" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J52" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K52" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L52" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M52" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N52" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O52" s="26" t="n">
         <v>680</v>
@@ -6742,16 +6752,16 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="23" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C53" s="30" t="n">
         <v>44299.5069444445</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E53" s="24" t="n">
         <v>2021</v>
@@ -6766,22 +6776,22 @@
         <v>2</v>
       </c>
       <c r="I53" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J53" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K53" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L53" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M53" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N53" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O53" s="26" t="n">
         <v>1258</v>
@@ -6802,16 +6812,16 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="23" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C54" s="30" t="n">
         <v>44299.5145833333</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E54" s="24" t="n">
         <v>2021</v>
@@ -6826,22 +6836,22 @@
         <v>2</v>
       </c>
       <c r="I54" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J54" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K54" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L54" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M54" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N54" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O54" s="26" t="n">
         <v>1258</v>
@@ -6862,16 +6872,16 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="23" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C55" s="30" t="n">
         <v>44299.5222222222</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E55" s="24" t="n">
         <v>2021</v>
@@ -6886,22 +6896,22 @@
         <v>2</v>
       </c>
       <c r="I55" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J55" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K55" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L55" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M55" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N55" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O55" s="26" t="n">
         <v>1258</v>
@@ -6955,18 +6965,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>115</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="31" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B2" s="32" t="n">
         <v>70</v>
@@ -6977,7 +6987,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="31" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B3" s="32" t="n">
         <v>20</v>
@@ -7033,15 +7043,15 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="27" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="31" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B2" s="32" t="n">
         <v>15</v>
@@ -7049,7 +7059,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="31" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B3" s="32" t="n">
         <v>5</v>
@@ -7100,18 +7110,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>124</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="31" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B2" s="29" t="n">
         <v>44562.5</v>
@@ -7122,7 +7132,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="31" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B3" s="29" t="n">
         <v>44881.5</v>
@@ -7133,7 +7143,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B4" s="30" t="n">
         <v>44887.5</v>
@@ -7144,7 +7154,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="31" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B5" s="30" t="n">
         <v>44907.5</v>
@@ -7189,27 +7199,27 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="D1" s="27" t="s">
+      <c r="F1" s="27" t="s">
         <v>132</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="31" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B2" s="29" t="n">
         <v>44881.5</v>
@@ -7218,18 +7228,18 @@
         <v>44882.5034722222</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="31" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B3" s="29" t="n">
         <v>44887.5</v>
@@ -7238,18 +7248,18 @@
         <v>44888.5034722222</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="33" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B4" s="29" t="n">
         <v>44907.5</v>
@@ -7258,13 +7268,13 @@
         <v>44908.5034722222</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7323,21 +7333,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="38" t="s">
         <v>140</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="34" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B2" s="35" t="n">
         <v>0</v>
@@ -7346,7 +7356,7 @@
         <v>1000</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E2" s="37" t="str">
         <f aca="false">VLOOKUP(A2,ListExtractors!$A$2:$B$1048576,2,0)</f>
@@ -7355,42 +7365,74 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="34" t="s">
-        <v>144</v>
+        <v>142</v>
+      </c>
+      <c r="E3" s="37" t="str">
+        <f aca="false">VLOOKUP(A3,ListExtractors!$A$2:$B$1048576,2,0)</f>
+        <v>The Leq using maad library.</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="34" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+      <c r="E4" s="37" t="str">
+        <f aca="false">VLOOKUP(A4,ListExtractors!$A$2:$B$1048576,2,0)</f>
+        <v>The temporal median.</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="34" t="s">
-        <v>146</v>
+        <v>144</v>
+      </c>
+      <c r="E5" s="37" t="str">
+        <f aca="false">VLOOKUP(A5,ListExtractors!$A$2:$B$1048576,2,0)</f>
+        <v>The temporal entropy.</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="34" t="s">
-        <v>147</v>
+        <v>145</v>
+      </c>
+      <c r="E6" s="37" t="str">
+        <f aca="false">VLOOKUP(A6,ListExtractors!$A$2:$B$1048576,2,0)</f>
+        <v>The frequency entropy.</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="34" t="s">
-        <v>148</v>
+        <v>146</v>
+      </c>
+      <c r="E7" s="37" t="str">
+        <f aca="false">VLOOKUP(A7,ListExtractors!$A$2:$B$1048576,2,0)</f>
+        <v>The acoustic complexity index.</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="34" t="s">
-        <v>149</v>
+        <v>147</v>
+      </c>
+      <c r="E8" s="37" t="str">
+        <f aca="false">VLOOKUP(A8,ListExtractors!$A$2:$B$1048576,2,0)</f>
+        <v>The acoustic diversity index.</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="34" t="s">
-        <v>150</v>
+        <v>148</v>
+      </c>
+      <c r="E9" s="37" t="str">
+        <f aca="false">VLOOKUP(A9,ListExtractors!$A$2:$B$1048576,2,0)</f>
+        <v>The bioacoustics index.</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="34" t="s">
-        <v>151</v>
+        <v>149</v>
+      </c>
+      <c r="E10" s="37" t="str">
+        <f aca="false">VLOOKUP(A10,ListExtractors!$A$2:$B$1048576,2,0)</f>
+        <v>The normalized difference soundscape index.</v>
       </c>
     </row>
   </sheetData>
@@ -7433,12 +7475,12 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="38" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="39" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B2" s="37" t="str">
         <f aca="false">VLOOKUP(A2,ListDigesters!$A$2:$B$1048576,2,0)</f>
@@ -7447,7 +7489,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B3" s="37" t="str">
         <f aca="false">VLOOKUP(A3,ListDigesters!$A$2:$B$1048576,2,0)</f>
@@ -7456,7 +7498,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="39" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B4" s="37" t="str">
         <f aca="false">VLOOKUP(A4,ListDigesters!$A$2:$B$1048576,2,0)</f>
@@ -7465,7 +7507,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="39" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B5" s="37" t="str">
         <f aca="false">VLOOKUP(A5,ListDigesters!$A$2:$B$1048576,2,0)</f>
@@ -7474,7 +7516,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="39" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B6" s="37" t="str">
         <f aca="false">VLOOKUP(A6,ListDigesters!$A$2:$B$1048576,2,0)</f>
@@ -7483,7 +7525,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="39" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B7" s="37" t="str">
         <f aca="false">VLOOKUP(A7,ListDigesters!$A$2:$B$1048576,2,0)</f>
@@ -7492,7 +7534,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="39" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B8" s="37" t="str">
         <f aca="false">VLOOKUP(A8,ListDigesters!$A$2:$B$1048576,2,0)</f>
@@ -7501,7 +7543,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="39" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B9" s="37" t="str">
         <f aca="false">VLOOKUP(A9,ListDigesters!$A$2:$B$1048576,2,0)</f>
